--- a/source_data/Qual_5_data.xlsx
+++ b/source_data/Qual_5_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21558395-A73C-42E0-ACC7-D392728D740A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77057257-9AFC-474C-AEEC-D68A3CAB6EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2122,8 +2122,8 @@
   <dimension ref="A1:O316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203:A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11120,6 +11120,9 @@
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>58</v>
+      </c>
       <c r="B192">
         <v>5</v>
       </c>
@@ -11160,7 +11163,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>58</v>
+      </c>
       <c r="B193">
         <v>5</v>
       </c>
@@ -11201,7 +11207,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>58</v>
+      </c>
       <c r="B194">
         <v>5</v>
       </c>
@@ -11242,7 +11251,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>58</v>
+      </c>
       <c r="B195">
         <v>5</v>
       </c>
@@ -11283,7 +11295,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>58</v>
+      </c>
       <c r="B196">
         <v>5</v>
       </c>
@@ -11324,7 +11339,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>58</v>
+      </c>
       <c r="B197">
         <v>5</v>
       </c>
@@ -11365,7 +11383,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>58</v>
+      </c>
       <c r="B198">
         <v>5</v>
       </c>
@@ -11406,7 +11427,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>58</v>
+      </c>
       <c r="B199">
         <v>5</v>
       </c>
@@ -11447,7 +11471,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>58</v>
+      </c>
       <c r="B200">
         <v>5</v>
       </c>
@@ -11488,7 +11515,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>58</v>
+      </c>
       <c r="B201">
         <v>5</v>
       </c>
@@ -11529,7 +11559,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>58</v>
+      </c>
       <c r="B202">
         <v>5</v>
       </c>
@@ -11570,7 +11603,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>58</v>
+      </c>
       <c r="B203">
         <v>5</v>
       </c>
@@ -11611,7 +11647,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>58</v>
+      </c>
       <c r="B204">
         <v>5</v>
       </c>
@@ -11652,7 +11691,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>58</v>
+      </c>
       <c r="B205">
         <v>5</v>
       </c>
@@ -11693,7 +11735,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>58</v>
+      </c>
       <c r="B206">
         <v>5</v>
       </c>
@@ -11734,7 +11779,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>58</v>
+      </c>
       <c r="B207">
         <v>5</v>
       </c>
@@ -11775,7 +11823,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>58</v>
+      </c>
       <c r="B208">
         <v>5</v>
       </c>
@@ -11816,7 +11867,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>58</v>
+      </c>
       <c r="B209">
         <v>5</v>
       </c>
@@ -11857,7 +11911,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>58</v>
+      </c>
       <c r="B210">
         <v>5</v>
       </c>
@@ -11898,7 +11955,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>58</v>
+      </c>
       <c r="B211">
         <v>5</v>
       </c>
@@ -11939,7 +11999,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>58</v>
+      </c>
       <c r="B212">
         <v>5</v>
       </c>
@@ -11980,7 +12043,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>58</v>
+      </c>
       <c r="B213">
         <v>5</v>
       </c>
@@ -12021,7 +12087,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>58</v>
+      </c>
       <c r="B214">
         <v>5</v>
       </c>
@@ -12062,7 +12131,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>58</v>
+      </c>
       <c r="B215">
         <v>5</v>
       </c>
@@ -12103,7 +12175,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>58</v>
+      </c>
       <c r="B216">
         <v>5</v>
       </c>
@@ -12144,7 +12219,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>58</v>
+      </c>
       <c r="B217">
         <v>5</v>
       </c>
@@ -12185,7 +12263,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>58</v>
+      </c>
       <c r="B218">
         <v>5</v>
       </c>
@@ -12226,7 +12307,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>58</v>
+      </c>
       <c r="B219">
         <v>5</v>
       </c>
@@ -12267,7 +12351,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>58</v>
+      </c>
       <c r="B220">
         <v>5</v>
       </c>
@@ -12308,7 +12395,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>58</v>
+      </c>
       <c r="B221">
         <v>5</v>
       </c>
@@ -12349,7 +12439,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>58</v>
+      </c>
       <c r="B222">
         <v>5</v>
       </c>
@@ -12390,7 +12483,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>58</v>
+      </c>
       <c r="B223">
         <v>5</v>
       </c>
@@ -12431,7 +12527,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>58</v>
+      </c>
       <c r="B224">
         <v>5</v>
       </c>
@@ -12472,7 +12571,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>58</v>
+      </c>
       <c r="B225">
         <v>5</v>
       </c>
@@ -12513,7 +12615,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>58</v>
+      </c>
       <c r="B226">
         <v>5</v>
       </c>
@@ -12554,7 +12659,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>58</v>
+      </c>
       <c r="B227">
         <v>5</v>
       </c>
@@ -12595,7 +12703,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>58</v>
+      </c>
       <c r="B228">
         <v>5</v>
       </c>
@@ -12636,7 +12747,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>58</v>
+      </c>
       <c r="B229">
         <v>5</v>
       </c>
@@ -12677,7 +12791,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>58</v>
+      </c>
       <c r="B230">
         <v>5</v>
       </c>
@@ -12718,7 +12835,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>58</v>
+      </c>
       <c r="B231">
         <v>5</v>
       </c>
@@ -12759,7 +12879,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>58</v>
+      </c>
       <c r="B232">
         <v>5</v>
       </c>
@@ -12800,7 +12923,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>58</v>
+      </c>
       <c r="B233">
         <v>5</v>
       </c>
@@ -12841,7 +12967,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>58</v>
+      </c>
       <c r="B234">
         <v>5</v>
       </c>
@@ -12882,7 +13011,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>58</v>
+      </c>
       <c r="B235">
         <v>5</v>
       </c>
@@ -12923,7 +13055,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>58</v>
+      </c>
       <c r="B236">
         <v>5</v>
       </c>
@@ -12964,7 +13099,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>58</v>
+      </c>
       <c r="B237">
         <v>5</v>
       </c>
@@ -13005,7 +13143,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>58</v>
+      </c>
       <c r="B238">
         <v>5</v>
       </c>
@@ -13046,7 +13187,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>58</v>
+      </c>
       <c r="B239">
         <v>5</v>
       </c>
@@ -13087,7 +13231,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>58</v>
+      </c>
       <c r="B240">
         <v>5</v>
       </c>
@@ -13128,7 +13275,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>58</v>
+      </c>
       <c r="B241">
         <v>5</v>
       </c>
@@ -13169,7 +13319,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>58</v>
+      </c>
       <c r="B242">
         <v>5</v>
       </c>
@@ -13210,7 +13363,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>58</v>
+      </c>
       <c r="B243">
         <v>5</v>
       </c>
@@ -13251,7 +13407,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>58</v>
+      </c>
       <c r="B244">
         <v>5</v>
       </c>
@@ -13292,7 +13451,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>58</v>
+      </c>
       <c r="B245">
         <v>5</v>
       </c>
@@ -13333,7 +13495,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>58</v>
+      </c>
       <c r="B246">
         <v>5</v>
       </c>
@@ -13374,7 +13539,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>58</v>
+      </c>
       <c r="B247">
         <v>5</v>
       </c>
@@ -13415,7 +13583,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>58</v>
+      </c>
       <c r="B248">
         <v>5</v>
       </c>
@@ -13456,7 +13627,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>58</v>
+      </c>
       <c r="B249">
         <v>5</v>
       </c>
@@ -13497,7 +13671,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>58</v>
+      </c>
       <c r="B250">
         <v>5</v>
       </c>
@@ -13538,7 +13715,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>58</v>
+      </c>
       <c r="B251">
         <v>5</v>
       </c>
@@ -13579,7 +13759,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>58</v>
+      </c>
       <c r="B252">
         <v>5</v>
       </c>
@@ -13620,7 +13803,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>58</v>
+      </c>
       <c r="B253">
         <v>5</v>
       </c>
@@ -13661,7 +13847,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>58</v>
+      </c>
       <c r="B254">
         <v>5</v>
       </c>
@@ -13702,7 +13891,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>58</v>
+      </c>
       <c r="B255">
         <v>5</v>
       </c>
@@ -13743,7 +13935,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>58</v>
+      </c>
       <c r="B256">
         <v>5</v>
       </c>
@@ -13784,7 +13979,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>58</v>
+      </c>
       <c r="B257">
         <v>5</v>
       </c>
@@ -13825,7 +14023,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>58</v>
+      </c>
       <c r="B258">
         <v>5</v>
       </c>
@@ -13866,7 +14067,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>58</v>
+      </c>
       <c r="B259">
         <v>5</v>
       </c>
@@ -13907,7 +14111,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>58</v>
+      </c>
       <c r="B260">
         <v>5</v>
       </c>
@@ -13948,7 +14155,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>58</v>
+      </c>
       <c r="B261">
         <v>5</v>
       </c>
@@ -13989,7 +14199,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>58</v>
+      </c>
       <c r="B262">
         <v>5</v>
       </c>
@@ -14030,7 +14243,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>58</v>
+      </c>
       <c r="B263">
         <v>5</v>
       </c>
@@ -14071,7 +14287,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>58</v>
+      </c>
       <c r="B264">
         <v>5</v>
       </c>
@@ -14112,7 +14331,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>58</v>
+      </c>
       <c r="B265">
         <v>5</v>
       </c>
@@ -14153,7 +14375,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>58</v>
+      </c>
       <c r="B266">
         <v>5</v>
       </c>
@@ -14194,7 +14419,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>58</v>
+      </c>
       <c r="B267">
         <v>5</v>
       </c>
@@ -14235,7 +14463,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="268" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>58</v>
+      </c>
       <c r="B268">
         <v>5</v>
       </c>
@@ -14276,7 +14507,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>58</v>
+      </c>
       <c r="B269">
         <v>5</v>
       </c>
@@ -14317,7 +14551,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="270" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>58</v>
+      </c>
       <c r="B270">
         <v>5</v>
       </c>
@@ -14358,7 +14595,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="271" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>58</v>
+      </c>
       <c r="B271">
         <v>5</v>
       </c>
@@ -14399,7 +14639,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>58</v>
+      </c>
       <c r="B272">
         <v>5</v>
       </c>
@@ -14440,7 +14683,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="273" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>58</v>
+      </c>
       <c r="B273">
         <v>5</v>
       </c>
@@ -14481,7 +14727,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="274" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>58</v>
+      </c>
       <c r="B274">
         <v>5</v>
       </c>
@@ -14522,7 +14771,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="275" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>58</v>
+      </c>
       <c r="B275">
         <v>5</v>
       </c>
@@ -14563,7 +14815,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="276" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>58</v>
+      </c>
       <c r="B276">
         <v>5</v>
       </c>
@@ -14604,7 +14859,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="277" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>58</v>
+      </c>
       <c r="B277">
         <v>5</v>
       </c>
@@ -14645,7 +14903,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="278" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>58</v>
+      </c>
       <c r="B278">
         <v>5</v>
       </c>
@@ -14686,7 +14947,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="279" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>58</v>
+      </c>
       <c r="B279">
         <v>5</v>
       </c>
@@ -14727,7 +14991,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="280" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>58</v>
+      </c>
       <c r="B280">
         <v>5</v>
       </c>
@@ -14768,7 +15035,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="281" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>58</v>
+      </c>
       <c r="B281">
         <v>5</v>
       </c>
@@ -14809,7 +15079,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="282" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>58</v>
+      </c>
       <c r="B282">
         <v>5</v>
       </c>
@@ -14850,7 +15123,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="283" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>58</v>
+      </c>
       <c r="B283">
         <v>5</v>
       </c>
@@ -14891,7 +15167,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="284" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>58</v>
+      </c>
       <c r="B284">
         <v>5</v>
       </c>
@@ -14932,7 +15211,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="285" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>58</v>
+      </c>
       <c r="B285">
         <v>5</v>
       </c>
@@ -14973,7 +15255,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="286" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>58</v>
+      </c>
       <c r="B286">
         <v>5</v>
       </c>
@@ -15014,7 +15299,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>58</v>
+      </c>
       <c r="B287">
         <v>5</v>
       </c>
@@ -15055,7 +15343,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="288" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>58</v>
+      </c>
       <c r="B288">
         <v>5</v>
       </c>
@@ -15096,7 +15387,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>58</v>
+      </c>
       <c r="B289">
         <v>5</v>
       </c>
@@ -15137,7 +15431,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>58</v>
+      </c>
       <c r="B290">
         <v>5</v>
       </c>
@@ -15178,7 +15475,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>58</v>
+      </c>
       <c r="B291">
         <v>5</v>
       </c>
@@ -15219,7 +15519,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>58</v>
+      </c>
       <c r="B292">
         <v>5</v>
       </c>
@@ -15260,7 +15563,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>58</v>
+      </c>
       <c r="B293">
         <v>5</v>
       </c>
@@ -15301,7 +15607,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>58</v>
+      </c>
       <c r="B294">
         <v>5</v>
       </c>
@@ -15342,7 +15651,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>58</v>
+      </c>
       <c r="B295">
         <v>5</v>
       </c>
@@ -15383,7 +15695,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>58</v>
+      </c>
       <c r="B296">
         <v>5</v>
       </c>
@@ -15424,7 +15739,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>58</v>
+      </c>
       <c r="B297">
         <v>5</v>
       </c>
@@ -15465,7 +15783,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>58</v>
+      </c>
       <c r="B298">
         <v>5</v>
       </c>
@@ -15506,7 +15827,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>58</v>
+      </c>
       <c r="B299">
         <v>5</v>
       </c>
@@ -15547,7 +15871,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>58</v>
+      </c>
       <c r="B300">
         <v>5</v>
       </c>
@@ -15588,7 +15915,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="301" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>58</v>
+      </c>
       <c r="B301">
         <v>5</v>
       </c>
@@ -15629,7 +15959,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="302" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>58</v>
+      </c>
       <c r="B302">
         <v>5</v>
       </c>
@@ -15670,7 +16003,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>58</v>
+      </c>
       <c r="B303">
         <v>5</v>
       </c>
@@ -15711,7 +16047,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>58</v>
+      </c>
       <c r="B304">
         <v>5</v>
       </c>
@@ -15752,7 +16091,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>58</v>
+      </c>
       <c r="B305">
         <v>5</v>
       </c>
@@ -15793,7 +16135,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>58</v>
+      </c>
       <c r="B306">
         <v>5</v>
       </c>
@@ -15834,7 +16179,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="307" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>58</v>
+      </c>
       <c r="B307">
         <v>5</v>
       </c>
@@ -15875,7 +16223,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="308" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>58</v>
+      </c>
       <c r="B308">
         <v>5</v>
       </c>
@@ -15916,7 +16267,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="309" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>58</v>
+      </c>
       <c r="B309">
         <v>5</v>
       </c>
@@ -15957,7 +16311,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>58</v>
+      </c>
       <c r="B310">
         <v>5</v>
       </c>
@@ -15998,7 +16355,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>58</v>
+      </c>
       <c r="B311">
         <v>5</v>
       </c>
@@ -16039,7 +16399,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="312" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>58</v>
+      </c>
       <c r="B312">
         <v>5</v>
       </c>
@@ -16080,7 +16443,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="313" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>58</v>
+      </c>
       <c r="B313">
         <v>5</v>
       </c>
@@ -16121,7 +16487,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>58</v>
+      </c>
       <c r="B314">
         <v>5</v>
       </c>
@@ -16162,7 +16531,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>58</v>
+      </c>
       <c r="B315">
         <v>5</v>
       </c>
@@ -16203,7 +16575,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>58</v>
+      </c>
       <c r="B316">
         <v>5</v>
       </c>
@@ -16245,22 +16620,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O316" xr:uid="{F72756BF-CD78-408E-A5EF-B14FB130BBE6}"/>
+  <autoFilter ref="A1:O316" xr:uid="{F72756BF-CD78-408E-A5EF-B14FB130BBE6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O316">
+      <sortCondition ref="A38"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -16483,6 +16853,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -16492,14 +16871,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CEC647-6C23-41C1-AD0E-2484640C21F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16518,6 +16889,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
   <ds:schemaRefs>

--- a/source_data/Qual_5_data.xlsx
+++ b/source_data/Qual_5_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77057257-9AFC-474C-AEEC-D68A3CAB6EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C4424-ED6A-4967-AB7B-D433ECC84FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Presence of a gender quota " sheetId="1" r:id="rId1"/>
@@ -629,12 +629,6 @@
     <t>REF_AREA_DESC</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -1269,6 +1263,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2121,9 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203:A204"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,19 +2144,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F1" t="s">
         <v>196</v>
@@ -2165,28 +2165,28 @@
         <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>411</v>
       </c>
       <c r="K1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I2">
         <v>83.94678863</v>
@@ -2221,7 +2221,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L2">
         <v>2015</v>
@@ -2259,7 +2259,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I3">
         <v>20.066609280000002</v>
@@ -2268,7 +2268,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L3">
         <v>2015</v>
@@ -2306,7 +2306,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I4">
         <v>4.6609764560000002</v>
@@ -2315,7 +2315,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L4">
         <v>2015</v>
@@ -2353,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I5">
         <v>17.785843320000001</v>
@@ -2362,7 +2362,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L5">
         <v>2015</v>
@@ -2400,7 +2400,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I6">
         <v>2.4572881290000002</v>
@@ -2409,7 +2409,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L6">
         <v>2015</v>
@@ -2447,7 +2447,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I7">
         <v>22.583078270000001</v>
@@ -2456,7 +2456,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L7">
         <v>2015</v>
@@ -2494,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I8">
         <v>-7.1214252719999998</v>
@@ -2503,7 +2503,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L8">
         <v>2015</v>
@@ -2541,7 +2541,7 @@
         <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I9">
         <v>19.252140239999999</v>
@@ -2550,7 +2550,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L9">
         <v>2015</v>
@@ -2588,7 +2588,7 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I10">
         <v>19.40660158</v>
@@ -2597,7 +2597,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L10">
         <v>2015</v>
@@ -2635,7 +2635,7 @@
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I11">
         <v>-7.9615998110000001</v>
@@ -2644,7 +2644,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L11">
         <v>2015</v>
@@ -2682,7 +2682,7 @@
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I12">
         <v>20.805876000000001</v>
@@ -2691,7 +2691,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L12">
         <v>2015</v>
@@ -2729,7 +2729,7 @@
         <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I13">
         <v>14.82209486</v>
@@ -2738,7 +2738,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L13">
         <v>2015</v>
@@ -2776,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I14">
         <v>-3.5540782960000001</v>
@@ -2785,7 +2785,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L14">
         <v>2015</v>
@@ -2823,7 +2823,7 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I15">
         <v>21.700790900000001</v>
@@ -2832,7 +2832,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -2870,7 +2870,7 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I16">
         <v>18.029598499999999</v>
@@ -2879,7 +2879,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2917,7 +2917,7 @@
         <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I17">
         <v>9.5727374110000003</v>
@@ -2926,7 +2926,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L17">
         <v>2015</v>
@@ -2964,7 +2964,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I18">
         <v>17.578170620000002</v>
@@ -3011,7 +3011,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I19">
         <v>-23.63544151</v>
@@ -3058,7 +3058,7 @@
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I20">
         <v>15.220526120000001</v>
@@ -3105,7 +3105,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I21">
         <v>23.654965069999999</v>
@@ -3152,7 +3152,7 @@
         <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I22">
         <v>-11.28173419</v>
@@ -3199,7 +3199,7 @@
         <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I23">
         <v>28.253621949999999</v>
@@ -3246,7 +3246,7 @@
         <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I24">
         <v>-14.46636926</v>
@@ -3293,7 +3293,7 @@
         <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I25">
         <v>0.97835764999999997</v>
@@ -3340,7 +3340,7 @@
         <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I26">
         <v>-1.7428438289999999</v>
@@ -3387,7 +3387,7 @@
         <v>128</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I27">
         <v>-65.145632739999996</v>
@@ -3434,7 +3434,7 @@
         <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I28">
         <v>-64.662242840000005</v>
@@ -3481,7 +3481,7 @@
         <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I29">
         <v>-53.08432878</v>
@@ -3528,7 +3528,7 @@
         <v>135</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I30">
         <v>-73.074467510000005</v>
@@ -3575,7 +3575,7 @@
         <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I31">
         <v>-84.197127820000006</v>
@@ -3622,7 +3622,7 @@
         <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I32">
         <v>-70.498475760000005</v>
@@ -3669,7 +3669,7 @@
         <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I33">
         <v>-78.37005241</v>
@@ -3716,7 +3716,7 @@
         <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I34">
         <v>-88.868629949999999</v>
@@ -3763,7 +3763,7 @@
         <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I35">
         <v>-58.97322037</v>
@@ -3810,7 +3810,7 @@
         <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I36">
         <v>-86.599743810000007</v>
@@ -3857,7 +3857,7 @@
         <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I37">
         <v>-102.5148166</v>
@@ -3904,7 +3904,7 @@
         <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I38">
         <v>-85.030603150000005</v>
@@ -3951,7 +3951,7 @@
         <v>150</v>
       </c>
       <c r="H39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I39">
         <v>-81.266166229999996</v>
@@ -3998,7 +3998,7 @@
         <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I40">
         <v>-60.548542249999997</v>
@@ -4045,7 +4045,7 @@
         <v>152</v>
       </c>
       <c r="H41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I41">
         <v>-71.820932769999999</v>
@@ -4092,7 +4092,7 @@
         <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I42">
         <v>-56.013870249999997</v>
@@ -4139,7 +4139,7 @@
         <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I43">
         <v>44.938393169999998</v>
@@ -4148,7 +4148,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L43">
         <v>2015</v>
@@ -4186,7 +4186,7 @@
         <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I44">
         <v>74.523248390000006</v>
@@ -4195,7 +4195,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L44">
         <v>2015</v>
@@ -4233,7 +4233,7 @@
         <v>168</v>
       </c>
       <c r="H45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I45">
         <v>63.119445579999997</v>
@@ -4242,7 +4242,7 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L45">
         <v>2015</v>
@@ -4280,7 +4280,7 @@
         <v>170</v>
       </c>
       <c r="H46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I46">
         <v>35.256941220000002</v>
@@ -4289,7 +4289,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L46">
         <v>2015</v>
@@ -4327,7 +4327,7 @@
         <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I47">
         <v>113.9174</v>
@@ -4336,7 +4336,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L47">
         <v>2015</v>
@@ -4374,7 +4374,7 @@
         <v>188</v>
       </c>
       <c r="H48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I48">
         <v>125.9451052</v>
@@ -4383,7 +4383,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L48">
         <v>2015</v>
@@ -4421,7 +4421,7 @@
         <v>194</v>
       </c>
       <c r="H49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I49">
         <v>127.8610254</v>
@@ -4430,7 +4430,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L49">
         <v>2015</v>
@@ -4468,7 +4468,7 @@
         <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I50">
         <v>103.0728057</v>
@@ -4477,7 +4477,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L50">
         <v>2015</v>
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I51">
         <v>90.450984840000004</v>
@@ -4524,7 +4524,7 @@
         <v>27.395985679999999</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L51">
         <v>2015</v>
@@ -4562,7 +4562,7 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I52">
         <v>80.704896539999993</v>
@@ -4571,7 +4571,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L52">
         <v>2015</v>
@@ -4609,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I53">
         <v>79.3608464</v>
@@ -4618,7 +4618,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L53">
         <v>2015</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I54">
         <v>54.197663480000003</v>
@@ -4665,7 +4665,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L54">
         <v>2015</v>
@@ -4703,7 +4703,7 @@
         <v>9</v>
       </c>
       <c r="H55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I55">
         <v>73.096725460000002</v>
@@ -4712,7 +4712,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L55">
         <v>2015</v>
@@ -4750,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I56">
         <v>1.5762574170000001</v>
@@ -4759,7 +4759,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L56">
         <v>2015</v>
@@ -4797,7 +4797,7 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I57">
         <v>134.34994119999999</v>
@@ -4806,7 +4806,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L57">
         <v>2015</v>
@@ -4844,7 +4844,7 @@
         <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I58">
         <v>14.141724719999999</v>
@@ -4853,7 +4853,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L58">
         <v>2015</v>
@@ -4891,7 +4891,7 @@
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I59">
         <v>25.237631530000002</v>
@@ -4900,7 +4900,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L59">
         <v>2015</v>
@@ -4938,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I60">
         <v>28.04940161</v>
@@ -4947,7 +4947,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L60">
         <v>2015</v>
@@ -4985,7 +4985,7 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I61">
         <v>-101.6575058</v>
@@ -4994,7 +4994,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L61">
         <v>2015</v>
@@ -5032,7 +5032,7 @@
         <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I62">
         <v>17.958745530000002</v>
@@ -5041,7 +5041,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L62">
         <v>2015</v>
@@ -5079,7 +5079,7 @@
         <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I63">
         <v>33.222859640000003</v>
@@ -5088,7 +5088,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L63">
         <v>2015</v>
@@ -5123,10 +5123,10 @@
         <v>203</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I64">
         <v>15.33151382</v>
@@ -5135,7 +5135,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L64">
         <v>2015</v>
@@ -5173,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I65">
         <v>9.3265712829999998</v>
@@ -5182,7 +5182,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L65">
         <v>2015</v>
@@ -5220,7 +5220,7 @@
         <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I66">
         <v>25.84093481</v>
@@ -5229,7 +5229,7 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L66">
         <v>2015</v>
@@ -5267,7 +5267,7 @@
         <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I67">
         <v>23.308447000000001</v>
@@ -5276,7 +5276,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L67">
         <v>2015</v>
@@ -5314,7 +5314,7 @@
         <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I68">
         <v>10.3806066</v>
@@ -5323,7 +5323,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L68">
         <v>2015</v>
@@ -5361,7 +5361,7 @@
         <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I69">
         <v>19.412215190000001</v>
@@ -5370,7 +5370,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L69">
         <v>2015</v>
@@ -5408,7 +5408,7 @@
         <v>31</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I70">
         <v>-19.021169660000002</v>
@@ -5417,7 +5417,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L70">
         <v>2015</v>
@@ -5455,7 +5455,7 @@
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I71">
         <v>34.622779919999999</v>
@@ -5464,7 +5464,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L71">
         <v>2015</v>
@@ -5502,7 +5502,7 @@
         <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I72">
         <v>12.570224270000001</v>
@@ -5511,7 +5511,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L72">
         <v>2015</v>
@@ -5549,7 +5549,7 @@
         <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I73">
         <v>139.27161029999999</v>
@@ -5558,7 +5558,7 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L73">
         <v>2015</v>
@@ -5596,7 +5596,7 @@
         <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I74">
         <v>26.424618760000001</v>
@@ -5605,7 +5605,7 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L74">
         <v>2015</v>
@@ -5643,7 +5643,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I75">
         <v>9.5529850189999994</v>
@@ -5652,7 +5652,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L75">
         <v>2015</v>
@@ -5690,7 +5690,7 @@
         <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I76">
         <v>23.905178070000002</v>
@@ -5699,7 +5699,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L76">
         <v>2015</v>
@@ -5737,7 +5737,7 @@
         <v>39</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I77">
         <v>6.0926565630000002</v>
@@ -5746,7 +5746,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L77">
         <v>2015</v>
@@ -5784,7 +5784,7 @@
         <v>40</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I78">
         <v>14.44617519</v>
@@ -5793,7 +5793,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L78">
         <v>2015</v>
@@ -5831,7 +5831,7 @@
         <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I79">
         <v>7.4242148139999999</v>
@@ -5840,7 +5840,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L79">
         <v>2015</v>
@@ -5878,7 +5878,7 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I80">
         <v>28.465062400000001</v>
@@ -5887,7 +5887,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L80">
         <v>2015</v>
@@ -5925,7 +5925,7 @@
         <v>44</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I81">
         <v>5.3314805679999999</v>
@@ -5934,7 +5934,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L81">
         <v>2015</v>
@@ -5972,7 +5972,7 @@
         <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I82">
         <v>170.47556729999999</v>
@@ -5981,7 +5981,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L82">
         <v>2015</v>
@@ -6019,7 +6019,7 @@
         <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I83">
         <v>11.47846389</v>
@@ -6028,7 +6028,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L83">
         <v>2015</v>
@@ -6066,7 +6066,7 @@
         <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I84">
         <v>24.98481009</v>
@@ -6075,7 +6075,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L84">
         <v>2015</v>
@@ -6113,7 +6113,7 @@
         <v>50</v>
       </c>
       <c r="H85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I85">
         <v>99.014049259999993</v>
@@ -6122,7 +6122,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L85">
         <v>2015</v>
@@ -6160,7 +6160,7 @@
         <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I86">
         <v>12.46329038</v>
@@ -6169,7 +6169,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L86">
         <v>2015</v>
@@ -6207,7 +6207,7 @@
         <v>53</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I87">
         <v>19.48495604</v>
@@ -6216,7 +6216,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L87">
         <v>2015</v>
@@ -6254,7 +6254,7 @@
         <v>56</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I88">
         <v>14.3775338</v>
@@ -6263,7 +6263,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L88">
         <v>2015</v>
@@ -6301,7 +6301,7 @@
         <v>57</v>
       </c>
       <c r="H89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I89">
         <v>8.2231579999999997</v>
@@ -6310,7 +6310,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L89">
         <v>2015</v>
@@ -6348,7 +6348,7 @@
         <v>58</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I90">
         <v>31.402708019999999</v>
@@ -6357,7 +6357,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L90">
         <v>2015</v>
@@ -6395,7 +6395,7 @@
         <v>60</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I91">
         <v>-2.2383053899999998</v>
@@ -6404,7 +6404,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K91" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L91">
         <v>2015</v>
@@ -6442,7 +6442,7 @@
         <v>61</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I92">
         <v>-99.138303109999995</v>
@@ -6451,7 +6451,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L92">
         <v>2015</v>
@@ -6489,7 +6489,7 @@
         <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I93">
         <v>160.15841169999999</v>
@@ -6498,7 +6498,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L93">
         <v>2015</v>
@@ -6536,7 +6536,7 @@
         <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I94">
         <v>177.96608839999999</v>
@@ -6545,7 +6545,7 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K94" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L94">
         <v>2015</v>
@@ -6583,7 +6583,7 @@
         <v>69</v>
       </c>
       <c r="H95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I95">
         <v>-157.5643005</v>
@@ -6592,7 +6592,7 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L95">
         <v>2015</v>
@@ -6630,7 +6630,7 @@
         <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I96">
         <v>166.92312999999999</v>
@@ -6639,7 +6639,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K96" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L96">
         <v>2015</v>
@@ -6677,7 +6677,7 @@
         <v>71</v>
       </c>
       <c r="H97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I97">
         <v>167.06797789999999</v>
@@ -6686,7 +6686,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L97">
         <v>2015</v>
@@ -6724,7 +6724,7 @@
         <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I98">
         <v>158.22521599999999</v>
@@ -6733,7 +6733,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L98">
         <v>2015</v>
@@ -6771,7 +6771,7 @@
         <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I99">
         <v>171.0839119</v>
@@ -6780,7 +6780,7 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L99">
         <v>2015</v>
@@ -6818,7 +6818,7 @@
         <v>74</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I100">
         <v>134.57338780000001</v>
@@ -6827,7 +6827,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L100">
         <v>2015</v>
@@ -6865,7 +6865,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I101">
         <v>145.8587761</v>
@@ -6874,7 +6874,7 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K101" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L101">
         <v>2015</v>
@@ -6912,7 +6912,7 @@
         <v>76</v>
       </c>
       <c r="H102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I102">
         <v>-175.19599909999999</v>
@@ -6921,7 +6921,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K102" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L102">
         <v>2015</v>
@@ -6959,7 +6959,7 @@
         <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I103">
         <v>178.66796110000001</v>
@@ -6968,7 +6968,7 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L103">
         <v>2015</v>
@@ -7006,7 +7006,7 @@
         <v>81</v>
       </c>
       <c r="H104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I104">
         <v>23.81380223</v>
@@ -7053,7 +7053,7 @@
         <v>83</v>
       </c>
       <c r="H105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I105">
         <v>12.741982699999999</v>
@@ -7100,7 +7100,7 @@
         <v>85</v>
       </c>
       <c r="H106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I106">
         <v>18.666184009999998</v>
@@ -7147,7 +7147,7 @@
         <v>88</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I107">
         <v>2.3399335940000001</v>
@@ -7194,7 +7194,7 @@
         <v>89</v>
       </c>
       <c r="H108" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I108">
         <v>10.46535826</v>
@@ -7241,7 +7241,7 @@
         <v>90</v>
       </c>
       <c r="H109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I109">
         <v>39.635052960000003</v>
@@ -7288,7 +7288,7 @@
         <v>93</v>
       </c>
       <c r="H110" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I110">
         <v>11.787277469999999</v>
@@ -7335,7 +7335,7 @@
         <v>94</v>
       </c>
       <c r="H111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I111">
         <v>-15.39944785</v>
@@ -7382,7 +7382,7 @@
         <v>95</v>
       </c>
       <c r="H112" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I112">
         <v>-1.205623522</v>
@@ -7429,7 +7429,7 @@
         <v>97</v>
       </c>
       <c r="H113" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I113">
         <v>-5.5526900159999997</v>
@@ -7476,7 +7476,7 @@
         <v>100</v>
       </c>
       <c r="H114" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I114">
         <v>-9.3118790380000007</v>
@@ -7523,7 +7523,7 @@
         <v>101</v>
       </c>
       <c r="H115" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I115">
         <v>46.698233899999998</v>
@@ -7570,7 +7570,7 @@
         <v>102</v>
       </c>
       <c r="H116" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I116">
         <v>33.488462499999997</v>
@@ -7617,7 +7617,7 @@
         <v>103</v>
       </c>
       <c r="H117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I117">
         <v>-3.5220160389999999</v>
@@ -7664,7 +7664,7 @@
         <v>105</v>
       </c>
       <c r="H118" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I118">
         <v>57.568021999999999</v>
@@ -7711,7 +7711,7 @@
         <v>106</v>
       </c>
       <c r="H119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I119">
         <v>38.184799409999997</v>
@@ -7758,7 +7758,7 @@
         <v>107</v>
       </c>
       <c r="H120" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I120">
         <v>17.219078849999999</v>
@@ -7805,7 +7805,7 @@
         <v>109</v>
       </c>
       <c r="H121" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I121">
         <v>8.0973632559999995</v>
@@ -7852,7 +7852,7 @@
         <v>110</v>
       </c>
       <c r="H122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I122">
         <v>-14.40182514</v>
@@ -7899,7 +7899,7 @@
         <v>112</v>
       </c>
       <c r="H123" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I123">
         <v>6.6097722650000001</v>
@@ -7946,7 +7946,7 @@
         <v>114</v>
       </c>
       <c r="H124" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I124">
         <v>55.465615909999997</v>
@@ -7993,7 +7993,7 @@
         <v>115</v>
       </c>
       <c r="H125" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I125">
         <v>-11.783065840000001</v>
@@ -8040,7 +8040,7 @@
         <v>117</v>
       </c>
       <c r="H126" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I126">
         <v>24.671843549999998</v>
@@ -8087,7 +8087,7 @@
         <v>125</v>
       </c>
       <c r="H127" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I127">
         <v>27.850328999999999</v>
@@ -8134,7 +8134,7 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I128">
         <v>-61.799975500000002</v>
@@ -8181,7 +8181,7 @@
         <v>129</v>
       </c>
       <c r="H129" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I129">
         <v>-78.051116629999996</v>
@@ -8228,7 +8228,7 @@
         <v>130</v>
       </c>
       <c r="H130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I130">
         <v>-59.534648900000001</v>
@@ -8275,7 +8275,7 @@
         <v>133</v>
       </c>
       <c r="H131" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I131">
         <v>-88.701995539999999</v>
@@ -8322,7 +8322,7 @@
         <v>134</v>
       </c>
       <c r="H132" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I132">
         <v>-71.230290190000005</v>
@@ -8369,7 +8369,7 @@
         <v>137</v>
       </c>
       <c r="H133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I133">
         <v>-79.544601439999994</v>
@@ -8416,7 +8416,7 @@
         <v>138</v>
       </c>
       <c r="H134" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I134">
         <v>-61.349375600000002</v>
@@ -8463,7 +8463,7 @@
         <v>142</v>
       </c>
       <c r="H135" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I135">
         <v>-61.682485679999999</v>
@@ -8510,7 +8510,7 @@
         <v>143</v>
       </c>
       <c r="H136" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I136">
         <v>-91.231274600000006</v>
@@ -8557,7 +8557,7 @@
         <v>147</v>
       </c>
       <c r="H137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I137">
         <v>-77.310684089999995</v>
@@ -8604,7 +8604,7 @@
         <v>153</v>
       </c>
       <c r="H138" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I138">
         <v>-62.766286129999997</v>
@@ -8651,7 +8651,7 @@
         <v>154</v>
       </c>
       <c r="H139" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I139">
         <v>-60.965295529999999</v>
@@ -8698,7 +8698,7 @@
         <v>155</v>
       </c>
       <c r="H140" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I140">
         <v>-61.190243209999998</v>
@@ -8745,7 +8745,7 @@
         <v>156</v>
       </c>
       <c r="H141" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I141">
         <v>-55.906263940000002</v>
@@ -8792,7 +8792,7 @@
         <v>157</v>
       </c>
       <c r="H142" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I142">
         <v>-61.293895040000002</v>
@@ -8839,7 +8839,7 @@
         <v>159</v>
       </c>
       <c r="H143" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I143">
         <v>-66.156420839999996</v>
@@ -8886,7 +8886,7 @@
         <v>160</v>
       </c>
       <c r="H144" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I144">
         <v>50.010647249999998</v>
@@ -8895,7 +8895,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K144" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L144">
         <v>2015</v>
@@ -8933,7 +8933,7 @@
         <v>164</v>
       </c>
       <c r="H145" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I145">
         <v>66.653591590000005</v>
@@ -8942,7 +8942,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L145">
         <v>2015</v>
@@ -8980,7 +8980,7 @@
         <v>166</v>
       </c>
       <c r="H146" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I146">
         <v>69.294998000000007</v>
@@ -8989,7 +8989,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K146" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L146">
         <v>2015</v>
@@ -9027,7 +9027,7 @@
         <v>167</v>
       </c>
       <c r="H147" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I147">
         <v>58.978766499999999</v>
@@ -9036,7 +9036,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K147" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L147">
         <v>2015</v>
@@ -9074,7 +9074,7 @@
         <v>169</v>
       </c>
       <c r="H148" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I148">
         <v>50.5490754</v>
@@ -9083,7 +9083,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K148" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L148">
         <v>2015</v>
@@ -9121,7 +9121,7 @@
         <v>173</v>
       </c>
       <c r="H149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I149">
         <v>47.493050289999999</v>
@@ -9130,7 +9130,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K149" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L149">
         <v>2015</v>
@@ -9168,7 +9168,7 @@
         <v>174</v>
       </c>
       <c r="H150" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I150">
         <v>35.893917109999997</v>
@@ -9177,7 +9177,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K150" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L150">
         <v>2015</v>
@@ -9215,7 +9215,7 @@
         <v>175</v>
       </c>
       <c r="H151" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I151">
         <v>57.877434819999998</v>
@@ -9224,7 +9224,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K151" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L151">
         <v>2015</v>
@@ -9262,7 +9262,7 @@
         <v>176</v>
       </c>
       <c r="H152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I152">
         <v>51.19152467</v>
@@ -9271,7 +9271,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K152" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L152">
         <v>2015</v>
@@ -9309,7 +9309,7 @@
         <v>178</v>
       </c>
       <c r="H153" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I153">
         <v>38.50466565</v>
@@ -9318,7 +9318,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K153" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L153">
         <v>2015</v>
@@ -9356,7 +9356,7 @@
         <v>179</v>
       </c>
       <c r="H154" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I154">
         <v>53.982791589999998</v>
@@ -9365,7 +9365,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K154" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L154">
         <v>2015</v>
@@ -9403,7 +9403,7 @@
         <v>180</v>
       </c>
       <c r="H155" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I155">
         <v>35.428903290000001</v>
@@ -9412,7 +9412,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L155">
         <v>2015</v>
@@ -9450,7 +9450,7 @@
         <v>181</v>
       </c>
       <c r="H156" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I156">
         <v>45.223891430000002</v>
@@ -9459,7 +9459,7 @@
         <v>15.22242099</v>
       </c>
       <c r="K156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L156">
         <v>2015</v>
@@ -9497,7 +9497,7 @@
         <v>182</v>
       </c>
       <c r="H157" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I157">
         <v>96.51752295</v>
@@ -9506,7 +9506,7 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K157" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L157">
         <v>2015</v>
@@ -9544,7 +9544,7 @@
         <v>183</v>
       </c>
       <c r="H158" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I158">
         <v>104.922836</v>
@@ -9553,7 +9553,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K158" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L158">
         <v>2015</v>
@@ -9591,7 +9591,7 @@
         <v>185</v>
       </c>
       <c r="H159" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I159">
         <v>101.99019680000001</v>
@@ -9600,7 +9600,7 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K159" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L159">
         <v>2015</v>
@@ -9638,7 +9638,7 @@
         <v>186</v>
       </c>
       <c r="H160" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I160">
         <v>116.83463140000001</v>
@@ -9647,7 +9647,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K160" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L160">
         <v>2015</v>
@@ -9685,7 +9685,7 @@
         <v>187</v>
       </c>
       <c r="H161" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I161">
         <v>120.86014179999999</v>
@@ -9694,7 +9694,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K161" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L161">
         <v>2015</v>
@@ -9732,7 +9732,7 @@
         <v>189</v>
       </c>
       <c r="H162" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I162">
         <v>103.8107883</v>
@@ -9741,7 +9741,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K162" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L162">
         <v>2015</v>
@@ -9779,7 +9779,7 @@
         <v>190</v>
       </c>
       <c r="H163" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I163">
         <v>105.802499</v>
@@ -9788,7 +9788,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K163" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L163">
         <v>2015</v>
@@ -9826,7 +9826,7 @@
         <v>191</v>
       </c>
       <c r="H164" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I164">
         <v>101.0202951</v>
@@ -9835,7 +9835,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K164" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L164">
         <v>2015</v>
@@ -9873,7 +9873,7 @@
         <v>193</v>
       </c>
       <c r="H165" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I165">
         <v>127.1803633</v>
@@ -9882,7 +9882,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K165" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L165">
         <v>2015</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I166">
         <v>66.026881979999999</v>
@@ -9929,7 +9929,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K166" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L166">
         <v>2015</v>
@@ -9967,7 +9967,7 @@
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I167">
         <v>89.176607880000006</v>
@@ -9976,7 +9976,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K167" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L167">
         <v>2015</v>
@@ -10014,7 +10014,7 @@
         <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I168">
         <v>68.804796839999995</v>
@@ -10023,7 +10023,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K168" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L168">
         <v>2015</v>
@@ -10061,7 +10061,7 @@
         <v>65</v>
       </c>
       <c r="H169" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I169">
         <v>-6.2819428410000002</v>
@@ -10070,7 +10070,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K169" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L169">
         <v>2015</v>
@@ -10108,7 +10108,7 @@
         <v>78</v>
       </c>
       <c r="H170" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I170">
         <v>-172.4430749</v>
@@ -10117,7 +10117,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K170" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L170">
         <v>2015</v>
@@ -10155,7 +10155,7 @@
         <v>82</v>
       </c>
       <c r="H171" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I171">
         <v>29.890809919999999</v>
@@ -10202,7 +10202,7 @@
         <v>91</v>
       </c>
       <c r="H172" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I172">
         <v>38.110742889999997</v>
@@ -10249,7 +10249,7 @@
         <v>92</v>
       </c>
       <c r="H173" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I173">
         <v>42.182747069999998</v>
@@ -10296,7 +10296,7 @@
         <v>108</v>
       </c>
       <c r="H174" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I174">
         <v>9.4001678769999995</v>
@@ -10343,7 +10343,7 @@
         <v>116</v>
       </c>
       <c r="H175" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I175">
         <v>46.203674769999999</v>
@@ -10390,7 +10390,7 @@
         <v>118</v>
       </c>
       <c r="H176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I176">
         <v>29.86909584</v>
@@ -10437,7 +10437,7 @@
         <v>119</v>
       </c>
       <c r="H177" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I177">
         <v>30.326187730000001</v>
@@ -10484,7 +10484,7 @@
         <v>120</v>
       </c>
       <c r="H178" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I178">
         <v>29.956501589999998</v>
@@ -10493,7 +10493,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K178" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L178">
         <v>2015</v>
@@ -10528,10 +10528,10 @@
         <v>748</v>
       </c>
       <c r="G179" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H179" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I179">
         <v>31.501492880000001</v>
@@ -10578,7 +10578,7 @@
         <v>122</v>
       </c>
       <c r="H180" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I180">
         <v>32.391004379999998</v>
@@ -10625,7 +10625,7 @@
         <v>123</v>
       </c>
       <c r="H181" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I181">
         <v>34.805211819999997</v>
@@ -10672,7 +10672,7 @@
         <v>145</v>
       </c>
       <c r="H182" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I182">
         <v>-72.336409579999994</v>
@@ -10719,7 +10719,7 @@
         <v>172</v>
       </c>
       <c r="H183" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I183">
         <v>37.130247740000001</v>
@@ -10728,7 +10728,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K183" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L183">
         <v>2015</v>
@@ -10766,7 +10766,7 @@
         <v>177</v>
       </c>
       <c r="H184" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I184">
         <v>44.547633470000001</v>
@@ -10775,7 +10775,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K184" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L184">
         <v>2015</v>
@@ -10813,7 +10813,7 @@
         <v>192</v>
       </c>
       <c r="H185" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I185">
         <v>104.1403375</v>
@@ -10822,7 +10822,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K185" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L185">
         <v>2015</v>
@@ -10860,7 +10860,7 @@
         <v>62</v>
       </c>
       <c r="H186" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I186">
         <v>2.6781642269999999</v>
@@ -10869,7 +10869,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K186" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L186">
         <v>2015</v>
@@ -10907,7 +10907,7 @@
         <v>98</v>
       </c>
       <c r="H187" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I187">
         <v>37.860968159999999</v>
@@ -10954,7 +10954,7 @@
         <v>104</v>
       </c>
       <c r="H188" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I188">
         <v>-10.33187259</v>
@@ -11001,7 +11001,7 @@
         <v>111</v>
       </c>
       <c r="H189" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I189">
         <v>29.923101939999999</v>
@@ -11048,7 +11048,7 @@
         <v>171</v>
       </c>
       <c r="H190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I190">
         <v>43.766062669999997</v>
@@ -11057,7 +11057,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K190" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L190">
         <v>2015</v>
@@ -11095,7 +11095,7 @@
         <v>162</v>
       </c>
       <c r="H191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I191">
         <v>43.371361499999999</v>
@@ -11104,7 +11104,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L191">
         <v>2015</v>
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I192">
         <v>66.026881979999999</v>
@@ -11151,7 +11151,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M192" s="1">
         <v>18</v>
@@ -11186,7 +11186,7 @@
         <v>13</v>
       </c>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I193">
         <v>20.066609280000002</v>
@@ -11195,13 +11195,13 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K193" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M193" s="1">
         <v>17</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O193" s="1">
         <v>2019</v>
@@ -11230,7 +11230,7 @@
         <v>62</v>
       </c>
       <c r="H194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I194">
         <v>2.6781642269999999</v>
@@ -11239,13 +11239,13 @@
         <v>28.15940032</v>
       </c>
       <c r="K194" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M194" s="1">
         <v>17</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O194" s="1">
         <v>2019</v>
@@ -11274,7 +11274,7 @@
         <v>80</v>
       </c>
       <c r="H195" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I195">
         <v>17.578170620000002</v>
@@ -11289,7 +11289,7 @@
         <v>17</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O195" s="1">
         <v>2019</v>
@@ -11318,7 +11318,7 @@
         <v>128</v>
       </c>
       <c r="H196" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I196">
         <v>-65.145632739999996</v>
@@ -11333,7 +11333,7 @@
         <v>17</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O196" s="1">
         <v>2019</v>
@@ -11362,7 +11362,7 @@
         <v>161</v>
       </c>
       <c r="H197" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I197">
         <v>44.938393169999998</v>
@@ -11371,13 +11371,13 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K197" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M197" s="1">
         <v>17</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O197" s="1">
         <v>2019</v>
@@ -11406,7 +11406,7 @@
         <v>15</v>
       </c>
       <c r="H198" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I198">
         <v>134.34994119999999</v>
@@ -11415,7 +11415,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K198" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M198" s="1">
         <v>16</v>
@@ -11450,7 +11450,7 @@
         <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I199">
         <v>14.141724719999999</v>
@@ -11459,7 +11459,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K199" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M199" s="1">
         <v>16</v>
@@ -11494,7 +11494,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I200">
         <v>89.176607880000006</v>
@@ -11503,7 +11503,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K200" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M200" s="1">
         <v>18</v>
@@ -11538,7 +11538,7 @@
         <v>17</v>
       </c>
       <c r="H201" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I201">
         <v>4.6609764560000002</v>
@@ -11547,13 +11547,13 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K201" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M201" s="1">
         <v>17</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O201" s="1">
         <v>2019</v>
@@ -11582,7 +11582,7 @@
         <v>131</v>
       </c>
       <c r="H202" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I202">
         <v>-64.662242840000005</v>
@@ -11597,7 +11597,7 @@
         <v>17</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O202" s="1">
         <v>2019</v>
@@ -11626,7 +11626,7 @@
         <v>18</v>
       </c>
       <c r="H203" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I203">
         <v>17.785843320000001</v>
@@ -11635,13 +11635,13 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K203" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M203" s="1">
         <v>17</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O203" s="1">
         <v>2019</v>
@@ -11670,7 +11670,7 @@
         <v>81</v>
       </c>
       <c r="H204" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I204">
         <v>23.81380223</v>
@@ -11714,7 +11714,7 @@
         <v>132</v>
       </c>
       <c r="H205" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I205">
         <v>-53.08432878</v>
@@ -11729,7 +11729,7 @@
         <v>17</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O205" s="1">
         <v>2019</v>
@@ -11758,7 +11758,7 @@
         <v>124</v>
       </c>
       <c r="H206" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I206">
         <v>-1.7428438289999999</v>
@@ -11773,7 +11773,7 @@
         <v>17</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O206" s="1">
         <v>2019</v>
@@ -11802,7 +11802,7 @@
         <v>82</v>
       </c>
       <c r="H207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I207">
         <v>29.890809919999999</v>
@@ -11846,7 +11846,7 @@
         <v>84</v>
       </c>
       <c r="H208" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I208">
         <v>-23.63544151</v>
@@ -11861,7 +11861,7 @@
         <v>17</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O208" s="1">
         <v>2019</v>
@@ -11890,7 +11890,7 @@
         <v>83</v>
       </c>
       <c r="H209" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I209">
         <v>12.741982699999999</v>
@@ -11934,7 +11934,7 @@
         <v>21</v>
       </c>
       <c r="H210" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I210">
         <v>-101.6575058</v>
@@ -11943,7 +11943,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M210" s="1">
         <v>16</v>
@@ -11978,7 +11978,7 @@
         <v>134</v>
       </c>
       <c r="H211" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I211">
         <v>-71.230290190000005</v>
@@ -11993,7 +11993,7 @@
         <v>17</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O211" s="1">
         <v>2019</v>
@@ -12022,7 +12022,7 @@
         <v>192</v>
       </c>
       <c r="H212" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I212">
         <v>104.1403375</v>
@@ -12031,7 +12031,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K212" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M212" s="1">
         <v>18</v>
@@ -12066,7 +12066,7 @@
         <v>135</v>
       </c>
       <c r="H213" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I213">
         <v>-73.074467510000005</v>
@@ -12081,7 +12081,7 @@
         <v>17</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O213" s="1">
         <v>2019</v>
@@ -12110,7 +12110,7 @@
         <v>86</v>
       </c>
       <c r="H214" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I214">
         <v>15.220526120000001</v>
@@ -12125,7 +12125,7 @@
         <v>17</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O214" s="1">
         <v>2019</v>
@@ -12154,7 +12154,7 @@
         <v>136</v>
       </c>
       <c r="H215" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I215">
         <v>-84.197127820000006</v>
@@ -12169,7 +12169,7 @@
         <v>17</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O215" s="1">
         <v>2019</v>
@@ -12198,7 +12198,7 @@
         <v>97</v>
       </c>
       <c r="H216" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I216">
         <v>-5.5526900159999997</v>
@@ -12242,7 +12242,7 @@
         <v>22</v>
       </c>
       <c r="H217" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I217">
         <v>17.958745530000002</v>
@@ -12251,13 +12251,13 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K217" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M217" s="1">
         <v>17</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O217" s="1">
         <v>2019</v>
@@ -12286,7 +12286,7 @@
         <v>23</v>
       </c>
       <c r="H218" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I218">
         <v>33.222859640000003</v>
@@ -12295,7 +12295,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K218" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M218" s="1">
         <v>16</v>
@@ -12327,10 +12327,10 @@
         <v>203</v>
       </c>
       <c r="G219" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H219" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I219">
         <v>15.33151382</v>
@@ -12339,7 +12339,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K219" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M219" s="1">
         <v>16</v>
@@ -12374,7 +12374,7 @@
         <v>87</v>
       </c>
       <c r="H220" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I220">
         <v>23.654965069999999</v>
@@ -12418,7 +12418,7 @@
         <v>92</v>
       </c>
       <c r="H221" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I221">
         <v>42.182747069999998</v>
@@ -12462,7 +12462,7 @@
         <v>139</v>
       </c>
       <c r="H222" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I222">
         <v>-70.498475760000005</v>
@@ -12477,7 +12477,7 @@
         <v>17</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O222" s="1">
         <v>2019</v>
@@ -12506,7 +12506,7 @@
         <v>140</v>
       </c>
       <c r="H223" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I223">
         <v>-78.37005241</v>
@@ -12521,7 +12521,7 @@
         <v>17</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O223" s="1">
         <v>2019</v>
@@ -12547,10 +12547,10 @@
         <v>818</v>
       </c>
       <c r="G224" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H224" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I224">
         <v>29.774685340000001</v>
@@ -12559,7 +12559,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K224" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M224" s="1">
         <v>16</v>
@@ -12594,7 +12594,7 @@
         <v>141</v>
       </c>
       <c r="H225" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I225">
         <v>-88.868629949999999</v>
@@ -12609,7 +12609,7 @@
         <v>17</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O225" s="1">
         <v>2019</v>
@@ -12638,7 +12638,7 @@
         <v>89</v>
       </c>
       <c r="H226" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I226">
         <v>10.46535826</v>
@@ -12682,7 +12682,7 @@
         <v>91</v>
       </c>
       <c r="H227" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I227">
         <v>38.110742889999997</v>
@@ -12726,7 +12726,7 @@
         <v>90</v>
       </c>
       <c r="H228" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I228">
         <v>39.635052960000003</v>
@@ -12770,7 +12770,7 @@
         <v>27</v>
       </c>
       <c r="H229" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I229">
         <v>2.4572881290000002</v>
@@ -12779,13 +12779,13 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K229" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M229" s="1">
         <v>17</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O229" s="1">
         <v>2019</v>
@@ -12814,7 +12814,7 @@
         <v>162</v>
       </c>
       <c r="H230" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I230">
         <v>43.371361499999999</v>
@@ -12823,7 +12823,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K230" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M230" s="1">
         <v>20</v>
@@ -12858,7 +12858,7 @@
         <v>28</v>
       </c>
       <c r="H231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I231">
         <v>10.3806066</v>
@@ -12867,7 +12867,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K231" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M231" s="1">
         <v>16</v>
@@ -12902,7 +12902,7 @@
         <v>29</v>
       </c>
       <c r="H232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I232">
         <v>22.583078270000001</v>
@@ -12911,13 +12911,13 @@
         <v>39.47301873</v>
       </c>
       <c r="K232" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M232" s="1">
         <v>17</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O232" s="1">
         <v>2019</v>
@@ -12946,7 +12946,7 @@
         <v>143</v>
       </c>
       <c r="H233" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I233">
         <v>-91.231274600000006</v>
@@ -12990,7 +12990,7 @@
         <v>96</v>
       </c>
       <c r="H234" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I234">
         <v>-11.28173419</v>
@@ -13005,7 +13005,7 @@
         <v>17</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O234" s="1">
         <v>2019</v>
@@ -13034,7 +13034,7 @@
         <v>144</v>
       </c>
       <c r="H235" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I235">
         <v>-58.97322037</v>
@@ -13049,7 +13049,7 @@
         <v>17</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O235" s="1">
         <v>2019</v>
@@ -13078,7 +13078,7 @@
         <v>145</v>
       </c>
       <c r="H236" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I236">
         <v>-72.336409579999994</v>
@@ -13122,7 +13122,7 @@
         <v>146</v>
       </c>
       <c r="H237" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I237">
         <v>-86.599743810000007</v>
@@ -13137,7 +13137,7 @@
         <v>17</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O237" s="1">
         <v>2019</v>
@@ -13166,7 +13166,7 @@
         <v>30</v>
       </c>
       <c r="H238" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I238">
         <v>19.412215190000001</v>
@@ -13175,7 +13175,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K238" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M238" s="1">
         <v>16</v>
@@ -13210,7 +13210,7 @@
         <v>31</v>
       </c>
       <c r="H239" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I239">
         <v>-19.021169660000002</v>
@@ -13219,7 +13219,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K239" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M239" s="1">
         <v>16</v>
@@ -13254,7 +13254,7 @@
         <v>7</v>
       </c>
       <c r="H240" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I240">
         <v>79.3608464</v>
@@ -13263,7 +13263,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K240" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M240" s="1">
         <v>16</v>
@@ -13298,7 +13298,7 @@
         <v>184</v>
       </c>
       <c r="H241" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I241">
         <v>113.9174</v>
@@ -13307,13 +13307,13 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M241" s="1">
         <v>17</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O241" s="1">
         <v>2019</v>
@@ -13342,7 +13342,7 @@
         <v>171</v>
       </c>
       <c r="H242" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I242">
         <v>43.766062669999997</v>
@@ -13351,7 +13351,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K242" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M242" s="1">
         <v>18</v>
@@ -13386,7 +13386,7 @@
         <v>32</v>
       </c>
       <c r="H243" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I243">
         <v>-7.1214252719999998</v>
@@ -13395,13 +13395,13 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K243" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M243" s="1">
         <v>17</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O243" s="1">
         <v>2019</v>
@@ -13430,7 +13430,7 @@
         <v>33</v>
       </c>
       <c r="H244" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I244">
         <v>34.622779919999999</v>
@@ -13439,7 +13439,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K244" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M244" s="1">
         <v>16</v>
@@ -13474,7 +13474,7 @@
         <v>34</v>
       </c>
       <c r="H245" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I245">
         <v>12.570224270000001</v>
@@ -13483,13 +13483,13 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K245" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M245" s="1">
         <v>17</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O245" s="1">
         <v>2019</v>
@@ -13518,7 +13518,7 @@
         <v>172</v>
       </c>
       <c r="H246" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I246">
         <v>37.130247740000001</v>
@@ -13527,7 +13527,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K246" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M246" s="1">
         <v>18</v>
@@ -13562,7 +13562,7 @@
         <v>98</v>
       </c>
       <c r="H247" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I247">
         <v>37.860968159999999</v>
@@ -13606,7 +13606,7 @@
         <v>165</v>
       </c>
       <c r="H248" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I248">
         <v>74.523248390000006</v>
@@ -13615,13 +13615,13 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K248" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M248" s="1">
         <v>17</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O248" s="1">
         <v>2019</v>
@@ -13650,7 +13650,7 @@
         <v>99</v>
       </c>
       <c r="H249" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I249">
         <v>28.253621949999999</v>
@@ -13665,7 +13665,7 @@
         <v>17</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O249" s="1">
         <v>2019</v>
@@ -13694,7 +13694,7 @@
         <v>100</v>
       </c>
       <c r="H250" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I250">
         <v>-9.3118790380000007</v>
@@ -13709,7 +13709,7 @@
         <v>17</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O250" s="1">
         <v>2019</v>
@@ -13738,7 +13738,7 @@
         <v>64</v>
       </c>
       <c r="H251" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I251">
         <v>18.029598499999999</v>
@@ -13747,13 +13747,13 @@
         <v>27.04042819</v>
       </c>
       <c r="K251" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M251" s="1">
         <v>17</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O251" s="1">
         <v>2019</v>
@@ -13782,7 +13782,7 @@
         <v>38</v>
       </c>
       <c r="H252" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I252">
         <v>23.905178070000002</v>
@@ -13791,7 +13791,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K252" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M252" s="1">
         <v>16</v>
@@ -13826,7 +13826,7 @@
         <v>39</v>
       </c>
       <c r="H253" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I253">
         <v>6.0926565630000002</v>
@@ -13835,7 +13835,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K253" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M253" s="1">
         <v>16</v>
@@ -13870,7 +13870,7 @@
         <v>102</v>
       </c>
       <c r="H254" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I254">
         <v>33.488462499999997</v>
@@ -13914,7 +13914,7 @@
         <v>103</v>
       </c>
       <c r="H255" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I255">
         <v>-3.5220160389999999</v>
@@ -13929,7 +13929,7 @@
         <v>17</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O255" s="1">
         <v>2019</v>
@@ -13958,7 +13958,7 @@
         <v>40</v>
       </c>
       <c r="H256" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I256">
         <v>14.44617519</v>
@@ -13967,7 +13967,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K256" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M256" s="1">
         <v>16</v>
@@ -14002,7 +14002,7 @@
         <v>104</v>
       </c>
       <c r="H257" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I257">
         <v>-10.33187259</v>
@@ -14017,7 +14017,7 @@
         <v>17</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O257" s="1">
         <v>2019</v>
@@ -14046,7 +14046,7 @@
         <v>105</v>
       </c>
       <c r="H258" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I258">
         <v>57.568021999999999</v>
@@ -14090,7 +14090,7 @@
         <v>148</v>
       </c>
       <c r="H259" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I259">
         <v>-102.5148166</v>
@@ -14105,7 +14105,7 @@
         <v>17</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O259" s="1">
         <v>2019</v>
@@ -14134,7 +14134,7 @@
         <v>195</v>
       </c>
       <c r="H260" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I260">
         <v>103.0728057</v>
@@ -14143,13 +14143,13 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K260" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M260" s="1">
         <v>17</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O260" s="1">
         <v>2019</v>
@@ -14178,7 +14178,7 @@
         <v>43</v>
       </c>
       <c r="H261" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I261">
         <v>19.252140239999999</v>
@@ -14187,13 +14187,13 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K261" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M261" s="1">
         <v>17</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O261" s="1">
         <v>2019</v>
@@ -14222,7 +14222,7 @@
         <v>65</v>
       </c>
       <c r="H262" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I262">
         <v>-6.2819428410000002</v>
@@ -14231,7 +14231,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K262" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M262" s="1">
         <v>18</v>
@@ -14266,7 +14266,7 @@
         <v>106</v>
       </c>
       <c r="H263" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I263">
         <v>38.184799409999997</v>
@@ -14310,7 +14310,7 @@
         <v>107</v>
       </c>
       <c r="H264" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I264">
         <v>17.219078849999999</v>
@@ -14354,7 +14354,7 @@
         <v>10</v>
       </c>
       <c r="H265" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I265">
         <v>83.94678863</v>
@@ -14363,7 +14363,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K265" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M265" s="1">
         <v>18</v>
@@ -14398,7 +14398,7 @@
         <v>44</v>
       </c>
       <c r="H266" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I266">
         <v>5.3314805679999999</v>
@@ -14407,7 +14407,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K266" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M266" s="1">
         <v>16</v>
@@ -14442,7 +14442,7 @@
         <v>45</v>
       </c>
       <c r="H267" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I267">
         <v>170.47556729999999</v>
@@ -14451,7 +14451,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K267" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M267" s="1">
         <v>16</v>
@@ -14486,7 +14486,7 @@
         <v>149</v>
       </c>
       <c r="H268" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I268">
         <v>-85.030603150000005</v>
@@ -14501,7 +14501,7 @@
         <v>17</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O268" s="1">
         <v>2019</v>
@@ -14530,7 +14530,7 @@
         <v>108</v>
       </c>
       <c r="H269" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I269">
         <v>9.4001678769999995</v>
@@ -14574,7 +14574,7 @@
         <v>59</v>
       </c>
       <c r="H270" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I270">
         <v>21.700790900000001</v>
@@ -14583,13 +14583,13 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K270" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M270" s="1">
         <v>17</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O270" s="1">
         <v>2019</v>
@@ -14618,7 +14618,7 @@
         <v>46</v>
       </c>
       <c r="H271" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I271">
         <v>11.47846389</v>
@@ -14627,7 +14627,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K271" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M271" s="1">
         <v>16</v>
@@ -14662,7 +14662,7 @@
         <v>12</v>
       </c>
       <c r="H272" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I272">
         <v>68.804796839999995</v>
@@ -14671,7 +14671,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K272" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M272" s="1">
         <v>18</v>
@@ -14706,7 +14706,7 @@
         <v>150</v>
       </c>
       <c r="H273" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I273">
         <v>-81.266166229999996</v>
@@ -14721,7 +14721,7 @@
         <v>17</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O273" s="1">
         <v>2019</v>
@@ -14750,7 +14750,7 @@
         <v>151</v>
       </c>
       <c r="H274" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I274">
         <v>-60.548542249999997</v>
@@ -14765,7 +14765,7 @@
         <v>17</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O274" s="1">
         <v>2019</v>
@@ -14794,7 +14794,7 @@
         <v>152</v>
       </c>
       <c r="H275" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I275">
         <v>-71.820932769999999</v>
@@ -14809,7 +14809,7 @@
         <v>17</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O275" s="1">
         <v>2019</v>
@@ -14838,7 +14838,7 @@
         <v>187</v>
       </c>
       <c r="H276" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I276">
         <v>120.86014179999999</v>
@@ -14847,7 +14847,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K276" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M276" s="1">
         <v>16</v>
@@ -14882,7 +14882,7 @@
         <v>47</v>
       </c>
       <c r="H277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I277">
         <v>19.40660158</v>
@@ -14891,13 +14891,13 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K277" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M277" s="1">
         <v>17</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O277" s="1">
         <v>2019</v>
@@ -14926,7 +14926,7 @@
         <v>48</v>
       </c>
       <c r="H278" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I278">
         <v>-7.9615998110000001</v>
@@ -14935,13 +14935,13 @@
         <v>39.68509315</v>
       </c>
       <c r="K278" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M278" s="1">
         <v>17</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O278" s="1">
         <v>2019</v>
@@ -14970,7 +14970,7 @@
         <v>194</v>
       </c>
       <c r="H279" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I279">
         <v>127.8610254</v>
@@ -14979,13 +14979,13 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K279" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M279" s="1">
         <v>17</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O279" s="1">
         <v>2019</v>
@@ -15014,7 +15014,7 @@
         <v>42</v>
       </c>
       <c r="H280" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I280">
         <v>28.465062400000001</v>
@@ -15023,13 +15023,13 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K280" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M280" s="1">
         <v>17</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O280" s="1">
         <v>2019</v>
@@ -15058,7 +15058,7 @@
         <v>49</v>
       </c>
       <c r="H281" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I281">
         <v>24.98481009</v>
@@ -15067,7 +15067,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K281" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M281" s="1">
         <v>16</v>
@@ -15102,7 +15102,7 @@
         <v>111</v>
       </c>
       <c r="H282" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I282">
         <v>29.923101939999999</v>
@@ -15146,7 +15146,7 @@
         <v>78</v>
       </c>
       <c r="H283" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I283">
         <v>-172.4430749</v>
@@ -15155,7 +15155,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K283" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M283" s="1">
         <v>18</v>
@@ -15190,7 +15190,7 @@
         <v>51</v>
       </c>
       <c r="H284" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I284">
         <v>12.46329038</v>
@@ -15199,13 +15199,13 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K284" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M284" s="1">
         <v>17</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O284" s="1">
         <v>2019</v>
@@ -15234,7 +15234,7 @@
         <v>177</v>
       </c>
       <c r="H285" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I285">
         <v>44.547633470000001</v>
@@ -15243,7 +15243,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K285" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M285" s="1">
         <v>18</v>
@@ -15278,7 +15278,7 @@
         <v>113</v>
       </c>
       <c r="H286" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I286">
         <v>-14.46636926</v>
@@ -15293,7 +15293,7 @@
         <v>17</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O286" s="1">
         <v>2019</v>
@@ -15322,7 +15322,7 @@
         <v>52</v>
       </c>
       <c r="H287" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I287">
         <v>20.805876000000001</v>
@@ -15331,13 +15331,13 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K287" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M287" s="1">
         <v>17</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O287" s="1">
         <v>2019</v>
@@ -15366,7 +15366,7 @@
         <v>115</v>
       </c>
       <c r="H288" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I288">
         <v>-11.783065840000001</v>
@@ -15410,7 +15410,7 @@
         <v>53</v>
       </c>
       <c r="H289" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I289">
         <v>19.48495604</v>
@@ -15419,7 +15419,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K289" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M289" s="1">
         <v>16</v>
@@ -15454,7 +15454,7 @@
         <v>54</v>
       </c>
       <c r="H290" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I290">
         <v>14.82209486</v>
@@ -15463,13 +15463,13 @@
         <v>46.11958061</v>
       </c>
       <c r="K290" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M290" s="1">
         <v>17</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O290" s="1">
         <v>2019</v>
@@ -15498,7 +15498,7 @@
         <v>67</v>
       </c>
       <c r="H291" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I291">
         <v>160.15841169999999</v>
@@ -15507,13 +15507,13 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K291" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M291" s="1">
         <v>17</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O291" s="1">
         <v>2019</v>
@@ -15542,7 +15542,7 @@
         <v>116</v>
       </c>
       <c r="H292" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I292">
         <v>46.203674769999999</v>
@@ -15586,7 +15586,7 @@
         <v>117</v>
       </c>
       <c r="H293" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I293">
         <v>24.671843549999998</v>
@@ -15630,7 +15630,7 @@
         <v>119</v>
       </c>
       <c r="H294" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I294">
         <v>30.326187730000001</v>
@@ -15674,7 +15674,7 @@
         <v>55</v>
       </c>
       <c r="H295" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I295">
         <v>-3.5540782960000001</v>
@@ -15683,13 +15683,13 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K295" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M295" s="1">
         <v>17</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O295" s="1">
         <v>2019</v>
@@ -15718,7 +15718,7 @@
         <v>6</v>
       </c>
       <c r="H296" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I296">
         <v>80.704896539999993</v>
@@ -15727,7 +15727,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K296" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M296" s="1">
         <v>16</v>
@@ -15762,7 +15762,7 @@
         <v>170</v>
       </c>
       <c r="H297" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I297">
         <v>35.256941220000002</v>
@@ -15771,13 +15771,13 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K297" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M297" s="1">
         <v>17</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O297" s="1">
         <v>2019</v>
@@ -15806,7 +15806,7 @@
         <v>120</v>
       </c>
       <c r="H298" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I298">
         <v>29.956501589999998</v>
@@ -15815,7 +15815,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K298" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M298" s="1">
         <v>18</v>
@@ -15847,10 +15847,10 @@
         <v>748</v>
       </c>
       <c r="G299" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H299" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I299">
         <v>31.501492880000001</v>
@@ -15894,7 +15894,7 @@
         <v>56</v>
       </c>
       <c r="H300" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I300">
         <v>14.3775338</v>
@@ -15903,7 +15903,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K300" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M300" s="1">
         <v>16</v>
@@ -15938,7 +15938,7 @@
         <v>57</v>
       </c>
       <c r="H301" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I301">
         <v>8.2231579999999997</v>
@@ -15947,7 +15947,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K301" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M301" s="1">
         <v>16</v>
@@ -15982,7 +15982,7 @@
         <v>191</v>
       </c>
       <c r="H302" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I302">
         <v>101.0202951</v>
@@ -15991,7 +15991,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K302" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M302" s="1">
         <v>16</v>
@@ -16026,7 +16026,7 @@
         <v>188</v>
       </c>
       <c r="H303" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I303">
         <v>125.9451052</v>
@@ -16035,13 +16035,13 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K303" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M303" s="1">
         <v>17</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O303" s="1">
         <v>2019</v>
@@ -16070,7 +16070,7 @@
         <v>121</v>
       </c>
       <c r="H304" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I304">
         <v>0.97835764999999997</v>
@@ -16085,7 +16085,7 @@
         <v>17</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O304" s="1">
         <v>2019</v>
@@ -16114,7 +16114,7 @@
         <v>66</v>
       </c>
       <c r="H305" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I305">
         <v>9.5727374110000003</v>
@@ -16123,13 +16123,13 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K305" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M305" s="1">
         <v>17</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O305" s="1">
         <v>2019</v>
@@ -16158,7 +16158,7 @@
         <v>180</v>
       </c>
       <c r="H306" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I306">
         <v>35.428903290000001</v>
@@ -16167,7 +16167,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K306" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M306" s="1">
         <v>16</v>
@@ -16202,7 +16202,7 @@
         <v>122</v>
       </c>
       <c r="H307" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I307">
         <v>32.391004379999998</v>
@@ -16246,7 +16246,7 @@
         <v>58</v>
       </c>
       <c r="H308" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I308">
         <v>31.402708019999999</v>
@@ -16255,7 +16255,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K308" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M308" s="1">
         <v>16</v>
@@ -16290,7 +16290,7 @@
         <v>60</v>
       </c>
       <c r="H309" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I309">
         <v>-2.2383053899999998</v>
@@ -16299,7 +16299,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K309" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M309" s="1">
         <v>16</v>
@@ -16334,7 +16334,7 @@
         <v>123</v>
       </c>
       <c r="H310" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I310">
         <v>34.805211819999997</v>
@@ -16378,7 +16378,7 @@
         <v>158</v>
       </c>
       <c r="H311" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I311">
         <v>-56.013870249999997</v>
@@ -16393,7 +16393,7 @@
         <v>17</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O311" s="1">
         <v>2019</v>
@@ -16422,7 +16422,7 @@
         <v>168</v>
       </c>
       <c r="H312" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I312">
         <v>63.119445579999997</v>
@@ -16431,13 +16431,13 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K312" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M312" s="1">
         <v>17</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O312" s="1">
         <v>2019</v>
@@ -16466,7 +16466,7 @@
         <v>71</v>
       </c>
       <c r="H313" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I313">
         <v>167.06797789999999</v>
@@ -16475,7 +16475,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K313" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M313" s="1">
         <v>16</v>
@@ -16510,7 +16510,7 @@
         <v>159</v>
       </c>
       <c r="H314" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I314">
         <v>-66.156420839999996</v>
@@ -16525,7 +16525,7 @@
         <v>17</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O314" s="1">
         <v>2019</v>
@@ -16554,7 +16554,7 @@
         <v>190</v>
       </c>
       <c r="H315" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I315">
         <v>105.802499</v>
@@ -16563,13 +16563,13 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K315" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M315" s="1">
         <v>17</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O315" s="1">
         <v>2019</v>
@@ -16598,7 +16598,7 @@
         <v>118</v>
       </c>
       <c r="H316" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I316">
         <v>29.86909584</v>
@@ -16631,6 +16631,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -16853,24 +16870,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CEC647-6C23-41C1-AD0E-2484640C21F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16887,22 +16905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/Qual_5_data.xlsx
+++ b/source_data/Qual_5_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C4424-ED6A-4967-AB7B-D433ECC84FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D682D-1C92-4A39-9917-D4810D4372A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 - Presence of a gender quota " sheetId="1" r:id="rId1"/>
@@ -2121,9 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11153,6 +11153,9 @@
       <c r="K192" t="s">
         <v>201</v>
       </c>
+      <c r="L192">
+        <v>2019</v>
+      </c>
       <c r="M192" s="1">
         <v>18</v>
       </c>
@@ -11197,6 +11200,9 @@
       <c r="K193" t="s">
         <v>211</v>
       </c>
+      <c r="L193">
+        <v>2019</v>
+      </c>
       <c r="M193" s="1">
         <v>17</v>
       </c>
@@ -11241,6 +11247,9 @@
       <c r="K194" t="s">
         <v>223</v>
       </c>
+      <c r="L194">
+        <v>2019</v>
+      </c>
       <c r="M194" s="1">
         <v>17</v>
       </c>
@@ -11285,6 +11294,9 @@
       <c r="K195" t="s">
         <v>79</v>
       </c>
+      <c r="L195">
+        <v>2019</v>
+      </c>
       <c r="M195" s="1">
         <v>17</v>
       </c>
@@ -11329,6 +11341,9 @@
       <c r="K196" t="s">
         <v>126</v>
       </c>
+      <c r="L196">
+        <v>2019</v>
+      </c>
       <c r="M196" s="1">
         <v>17</v>
       </c>
@@ -11373,6 +11388,9 @@
       <c r="K197" t="s">
         <v>223</v>
       </c>
+      <c r="L197">
+        <v>2019</v>
+      </c>
       <c r="M197" s="1">
         <v>17</v>
       </c>
@@ -11417,6 +11435,9 @@
       <c r="K198" t="s">
         <v>214</v>
       </c>
+      <c r="L198">
+        <v>2019</v>
+      </c>
       <c r="M198" s="1">
         <v>16</v>
       </c>
@@ -11461,6 +11482,9 @@
       <c r="K199" t="s">
         <v>211</v>
       </c>
+      <c r="L199">
+        <v>2019</v>
+      </c>
       <c r="M199" s="1">
         <v>16</v>
       </c>
@@ -11505,6 +11529,9 @@
       <c r="K200" t="s">
         <v>201</v>
       </c>
+      <c r="L200">
+        <v>2019</v>
+      </c>
       <c r="M200" s="1">
         <v>18</v>
       </c>
@@ -11549,6 +11576,9 @@
       <c r="K201" t="s">
         <v>211</v>
       </c>
+      <c r="L201">
+        <v>2019</v>
+      </c>
       <c r="M201" s="1">
         <v>17</v>
       </c>
@@ -11593,6 +11623,9 @@
       <c r="K202" t="s">
         <v>126</v>
       </c>
+      <c r="L202">
+        <v>2019</v>
+      </c>
       <c r="M202" s="1">
         <v>17</v>
       </c>
@@ -11637,6 +11670,9 @@
       <c r="K203" t="s">
         <v>211</v>
       </c>
+      <c r="L203">
+        <v>2019</v>
+      </c>
       <c r="M203" s="1">
         <v>17</v>
       </c>
@@ -11681,6 +11717,9 @@
       <c r="K204" t="s">
         <v>79</v>
       </c>
+      <c r="L204">
+        <v>2019</v>
+      </c>
       <c r="M204" s="1">
         <v>16</v>
       </c>
@@ -11725,6 +11764,9 @@
       <c r="K205" t="s">
         <v>126</v>
       </c>
+      <c r="L205">
+        <v>2019</v>
+      </c>
       <c r="M205" s="1">
         <v>17</v>
       </c>
@@ -11769,6 +11811,9 @@
       <c r="K206" t="s">
         <v>79</v>
       </c>
+      <c r="L206">
+        <v>2019</v>
+      </c>
       <c r="M206" s="1">
         <v>17</v>
       </c>
@@ -11813,6 +11858,9 @@
       <c r="K207" t="s">
         <v>79</v>
       </c>
+      <c r="L207">
+        <v>2019</v>
+      </c>
       <c r="M207" s="1">
         <v>18</v>
       </c>
@@ -11857,6 +11905,9 @@
       <c r="K208" t="s">
         <v>79</v>
       </c>
+      <c r="L208">
+        <v>2019</v>
+      </c>
       <c r="M208" s="1">
         <v>17</v>
       </c>
@@ -11901,6 +11952,9 @@
       <c r="K209" t="s">
         <v>79</v>
       </c>
+      <c r="L209">
+        <v>2019</v>
+      </c>
       <c r="M209" s="1">
         <v>16</v>
       </c>
@@ -11945,6 +11999,9 @@
       <c r="K210" t="s">
         <v>211</v>
       </c>
+      <c r="L210">
+        <v>2019</v>
+      </c>
       <c r="M210" s="1">
         <v>16</v>
       </c>
@@ -11989,6 +12046,9 @@
       <c r="K211" t="s">
         <v>126</v>
       </c>
+      <c r="L211">
+        <v>2019</v>
+      </c>
       <c r="M211" s="1">
         <v>17</v>
       </c>
@@ -12033,6 +12093,9 @@
       <c r="K212" t="s">
         <v>237</v>
       </c>
+      <c r="L212">
+        <v>2019</v>
+      </c>
       <c r="M212" s="1">
         <v>18</v>
       </c>
@@ -12077,6 +12140,9 @@
       <c r="K213" t="s">
         <v>126</v>
       </c>
+      <c r="L213">
+        <v>2019</v>
+      </c>
       <c r="M213" s="1">
         <v>17</v>
       </c>
@@ -12121,6 +12187,9 @@
       <c r="K214" t="s">
         <v>79</v>
       </c>
+      <c r="L214">
+        <v>2019</v>
+      </c>
       <c r="M214" s="1">
         <v>17</v>
       </c>
@@ -12165,6 +12234,9 @@
       <c r="K215" t="s">
         <v>126</v>
       </c>
+      <c r="L215">
+        <v>2019</v>
+      </c>
       <c r="M215" s="1">
         <v>17</v>
       </c>
@@ -12209,6 +12281,9 @@
       <c r="K216" t="s">
         <v>79</v>
       </c>
+      <c r="L216">
+        <v>2019</v>
+      </c>
       <c r="M216" s="1">
         <v>16</v>
       </c>
@@ -12253,6 +12328,9 @@
       <c r="K217" t="s">
         <v>211</v>
       </c>
+      <c r="L217">
+        <v>2019</v>
+      </c>
       <c r="M217" s="1">
         <v>17</v>
       </c>
@@ -12297,6 +12375,9 @@
       <c r="K218" t="s">
         <v>223</v>
       </c>
+      <c r="L218">
+        <v>2019</v>
+      </c>
       <c r="M218" s="1">
         <v>16</v>
       </c>
@@ -12341,6 +12422,9 @@
       <c r="K219" t="s">
         <v>211</v>
       </c>
+      <c r="L219">
+        <v>2019</v>
+      </c>
       <c r="M219" s="1">
         <v>16</v>
       </c>
@@ -12385,6 +12469,9 @@
       <c r="K220" t="s">
         <v>79</v>
       </c>
+      <c r="L220">
+        <v>2019</v>
+      </c>
       <c r="M220" s="1">
         <v>16</v>
       </c>
@@ -12429,6 +12516,9 @@
       <c r="K221" t="s">
         <v>79</v>
       </c>
+      <c r="L221">
+        <v>2019</v>
+      </c>
       <c r="M221" s="1">
         <v>18</v>
       </c>
@@ -12473,6 +12563,9 @@
       <c r="K222" t="s">
         <v>126</v>
       </c>
+      <c r="L222">
+        <v>2019</v>
+      </c>
       <c r="M222" s="1">
         <v>17</v>
       </c>
@@ -12517,6 +12610,9 @@
       <c r="K223" t="s">
         <v>126</v>
       </c>
+      <c r="L223">
+        <v>2019</v>
+      </c>
       <c r="M223" s="1">
         <v>17</v>
       </c>
@@ -12561,6 +12657,9 @@
       <c r="K224" t="s">
         <v>223</v>
       </c>
+      <c r="L224">
+        <v>2019</v>
+      </c>
       <c r="M224" s="1">
         <v>16</v>
       </c>
@@ -12605,6 +12704,9 @@
       <c r="K225" t="s">
         <v>126</v>
       </c>
+      <c r="L225">
+        <v>2019</v>
+      </c>
       <c r="M225" s="1">
         <v>17</v>
       </c>
@@ -12649,6 +12751,9 @@
       <c r="K226" t="s">
         <v>79</v>
       </c>
+      <c r="L226">
+        <v>2019</v>
+      </c>
       <c r="M226" s="1">
         <v>16</v>
       </c>
@@ -12693,6 +12798,9 @@
       <c r="K227" t="s">
         <v>79</v>
       </c>
+      <c r="L227">
+        <v>2019</v>
+      </c>
       <c r="M227" s="1">
         <v>18</v>
       </c>
@@ -12737,6 +12845,9 @@
       <c r="K228" t="s">
         <v>79</v>
       </c>
+      <c r="L228">
+        <v>2019</v>
+      </c>
       <c r="M228" s="1">
         <v>16</v>
       </c>
@@ -12781,6 +12892,9 @@
       <c r="K229" t="s">
         <v>211</v>
       </c>
+      <c r="L229">
+        <v>2019</v>
+      </c>
       <c r="M229" s="1">
         <v>17</v>
       </c>
@@ -12825,6 +12939,9 @@
       <c r="K230" t="s">
         <v>223</v>
       </c>
+      <c r="L230">
+        <v>2019</v>
+      </c>
       <c r="M230" s="1">
         <v>20</v>
       </c>
@@ -12869,6 +12986,9 @@
       <c r="K231" t="s">
         <v>211</v>
       </c>
+      <c r="L231">
+        <v>2019</v>
+      </c>
       <c r="M231" s="1">
         <v>16</v>
       </c>
@@ -12913,6 +13033,9 @@
       <c r="K232" t="s">
         <v>211</v>
       </c>
+      <c r="L232">
+        <v>2019</v>
+      </c>
       <c r="M232" s="1">
         <v>17</v>
       </c>
@@ -12957,6 +13080,9 @@
       <c r="K233" t="s">
         <v>126</v>
       </c>
+      <c r="L233">
+        <v>2019</v>
+      </c>
       <c r="M233" s="1">
         <v>16</v>
       </c>
@@ -13001,6 +13127,9 @@
       <c r="K234" t="s">
         <v>79</v>
       </c>
+      <c r="L234">
+        <v>2019</v>
+      </c>
       <c r="M234" s="1">
         <v>17</v>
       </c>
@@ -13045,6 +13174,9 @@
       <c r="K235" t="s">
         <v>126</v>
       </c>
+      <c r="L235">
+        <v>2019</v>
+      </c>
       <c r="M235" s="1">
         <v>17</v>
       </c>
@@ -13089,6 +13221,9 @@
       <c r="K236" t="s">
         <v>126</v>
       </c>
+      <c r="L236">
+        <v>2019</v>
+      </c>
       <c r="M236" s="1">
         <v>18</v>
       </c>
@@ -13133,6 +13268,9 @@
       <c r="K237" t="s">
         <v>126</v>
       </c>
+      <c r="L237">
+        <v>2019</v>
+      </c>
       <c r="M237" s="1">
         <v>17</v>
       </c>
@@ -13177,6 +13315,9 @@
       <c r="K238" t="s">
         <v>211</v>
       </c>
+      <c r="L238">
+        <v>2019</v>
+      </c>
       <c r="M238" s="1">
         <v>16</v>
       </c>
@@ -13221,6 +13362,9 @@
       <c r="K239" t="s">
         <v>211</v>
       </c>
+      <c r="L239">
+        <v>2019</v>
+      </c>
       <c r="M239" s="1">
         <v>16</v>
       </c>
@@ -13265,6 +13409,9 @@
       <c r="K240" t="s">
         <v>201</v>
       </c>
+      <c r="L240">
+        <v>2019</v>
+      </c>
       <c r="M240" s="1">
         <v>16</v>
       </c>
@@ -13309,6 +13456,9 @@
       <c r="K241" t="s">
         <v>237</v>
       </c>
+      <c r="L241">
+        <v>2019</v>
+      </c>
       <c r="M241" s="1">
         <v>17</v>
       </c>
@@ -13353,6 +13503,9 @@
       <c r="K242" t="s">
         <v>223</v>
       </c>
+      <c r="L242">
+        <v>2019</v>
+      </c>
       <c r="M242" s="1">
         <v>18</v>
       </c>
@@ -13397,6 +13550,9 @@
       <c r="K243" t="s">
         <v>211</v>
       </c>
+      <c r="L243">
+        <v>2019</v>
+      </c>
       <c r="M243" s="1">
         <v>17</v>
       </c>
@@ -13441,6 +13597,9 @@
       <c r="K244" t="s">
         <v>223</v>
       </c>
+      <c r="L244">
+        <v>2019</v>
+      </c>
       <c r="M244" s="1">
         <v>16</v>
       </c>
@@ -13485,6 +13644,9 @@
       <c r="K245" t="s">
         <v>211</v>
       </c>
+      <c r="L245">
+        <v>2019</v>
+      </c>
       <c r="M245" s="1">
         <v>17</v>
       </c>
@@ -13529,6 +13691,9 @@
       <c r="K246" t="s">
         <v>223</v>
       </c>
+      <c r="L246">
+        <v>2019</v>
+      </c>
       <c r="M246" s="1">
         <v>18</v>
       </c>
@@ -13573,6 +13738,9 @@
       <c r="K247" t="s">
         <v>79</v>
       </c>
+      <c r="L247">
+        <v>2019</v>
+      </c>
       <c r="M247" s="1">
         <v>18</v>
       </c>
@@ -13617,6 +13785,9 @@
       <c r="K248" t="s">
         <v>201</v>
       </c>
+      <c r="L248">
+        <v>2019</v>
+      </c>
       <c r="M248" s="1">
         <v>17</v>
       </c>
@@ -13661,6 +13832,9 @@
       <c r="K249" t="s">
         <v>79</v>
       </c>
+      <c r="L249">
+        <v>2019</v>
+      </c>
       <c r="M249" s="1">
         <v>17</v>
       </c>
@@ -13705,6 +13879,9 @@
       <c r="K250" t="s">
         <v>79</v>
       </c>
+      <c r="L250">
+        <v>2019</v>
+      </c>
       <c r="M250" s="1">
         <v>17</v>
       </c>
@@ -13749,6 +13926,9 @@
       <c r="K251" t="s">
         <v>223</v>
       </c>
+      <c r="L251">
+        <v>2019</v>
+      </c>
       <c r="M251" s="1">
         <v>17</v>
       </c>
@@ -13793,6 +13973,9 @@
       <c r="K252" t="s">
         <v>211</v>
       </c>
+      <c r="L252">
+        <v>2019</v>
+      </c>
       <c r="M252" s="1">
         <v>16</v>
       </c>
@@ -13837,6 +14020,9 @@
       <c r="K253" t="s">
         <v>211</v>
       </c>
+      <c r="L253">
+        <v>2019</v>
+      </c>
       <c r="M253" s="1">
         <v>16</v>
       </c>
@@ -13881,6 +14067,9 @@
       <c r="K254" t="s">
         <v>79</v>
       </c>
+      <c r="L254">
+        <v>2019</v>
+      </c>
       <c r="M254" s="1">
         <v>16</v>
       </c>
@@ -13925,6 +14114,9 @@
       <c r="K255" t="s">
         <v>79</v>
       </c>
+      <c r="L255">
+        <v>2019</v>
+      </c>
       <c r="M255" s="1">
         <v>17</v>
       </c>
@@ -13969,6 +14161,9 @@
       <c r="K256" t="s">
         <v>211</v>
       </c>
+      <c r="L256">
+        <v>2019</v>
+      </c>
       <c r="M256" s="1">
         <v>16</v>
       </c>
@@ -14013,6 +14208,9 @@
       <c r="K257" t="s">
         <v>79</v>
       </c>
+      <c r="L257">
+        <v>2019</v>
+      </c>
       <c r="M257" s="1">
         <v>17</v>
       </c>
@@ -14057,6 +14255,9 @@
       <c r="K258" t="s">
         <v>79</v>
       </c>
+      <c r="L258">
+        <v>2019</v>
+      </c>
       <c r="M258" s="1">
         <v>16</v>
       </c>
@@ -14101,6 +14302,9 @@
       <c r="K259" t="s">
         <v>126</v>
       </c>
+      <c r="L259">
+        <v>2019</v>
+      </c>
       <c r="M259" s="1">
         <v>17</v>
       </c>
@@ -14145,6 +14349,9 @@
       <c r="K260" t="s">
         <v>237</v>
       </c>
+      <c r="L260">
+        <v>2019</v>
+      </c>
       <c r="M260" s="1">
         <v>17</v>
       </c>
@@ -14189,6 +14396,9 @@
       <c r="K261" t="s">
         <v>211</v>
       </c>
+      <c r="L261">
+        <v>2019</v>
+      </c>
       <c r="M261" s="1">
         <v>17</v>
       </c>
@@ -14233,6 +14443,9 @@
       <c r="K262" t="s">
         <v>223</v>
       </c>
+      <c r="L262">
+        <v>2019</v>
+      </c>
       <c r="M262" s="1">
         <v>18</v>
       </c>
@@ -14277,6 +14490,9 @@
       <c r="K263" t="s">
         <v>79</v>
       </c>
+      <c r="L263">
+        <v>2019</v>
+      </c>
       <c r="M263" s="1">
         <v>16</v>
       </c>
@@ -14321,6 +14537,9 @@
       <c r="K264" t="s">
         <v>79</v>
       </c>
+      <c r="L264">
+        <v>2019</v>
+      </c>
       <c r="M264" s="1">
         <v>16</v>
       </c>
@@ -14365,6 +14584,9 @@
       <c r="K265" t="s">
         <v>201</v>
       </c>
+      <c r="L265">
+        <v>2019</v>
+      </c>
       <c r="M265" s="1">
         <v>18</v>
       </c>
@@ -14409,6 +14631,9 @@
       <c r="K266" t="s">
         <v>211</v>
       </c>
+      <c r="L266">
+        <v>2019</v>
+      </c>
       <c r="M266" s="1">
         <v>16</v>
       </c>
@@ -14453,6 +14678,9 @@
       <c r="K267" t="s">
         <v>214</v>
       </c>
+      <c r="L267">
+        <v>2019</v>
+      </c>
       <c r="M267" s="1">
         <v>16</v>
       </c>
@@ -14497,6 +14725,9 @@
       <c r="K268" t="s">
         <v>126</v>
       </c>
+      <c r="L268">
+        <v>2019</v>
+      </c>
       <c r="M268" s="1">
         <v>17</v>
       </c>
@@ -14541,6 +14772,9 @@
       <c r="K269" t="s">
         <v>79</v>
       </c>
+      <c r="L269">
+        <v>2019</v>
+      </c>
       <c r="M269" s="1">
         <v>18</v>
       </c>
@@ -14585,6 +14819,9 @@
       <c r="K270" t="s">
         <v>211</v>
       </c>
+      <c r="L270">
+        <v>2019</v>
+      </c>
       <c r="M270" s="1">
         <v>17</v>
       </c>
@@ -14629,6 +14866,9 @@
       <c r="K271" t="s">
         <v>211</v>
       </c>
+      <c r="L271">
+        <v>2019</v>
+      </c>
       <c r="M271" s="1">
         <v>16</v>
       </c>
@@ -14673,6 +14913,9 @@
       <c r="K272" t="s">
         <v>201</v>
       </c>
+      <c r="L272">
+        <v>2019</v>
+      </c>
       <c r="M272" s="1">
         <v>18</v>
       </c>
@@ -14717,6 +14960,9 @@
       <c r="K273" t="s">
         <v>126</v>
       </c>
+      <c r="L273">
+        <v>2019</v>
+      </c>
       <c r="M273" s="1">
         <v>17</v>
       </c>
@@ -14761,6 +15007,9 @@
       <c r="K274" t="s">
         <v>126</v>
       </c>
+      <c r="L274">
+        <v>2019</v>
+      </c>
       <c r="M274" s="1">
         <v>17</v>
       </c>
@@ -14805,6 +15054,9 @@
       <c r="K275" t="s">
         <v>126</v>
       </c>
+      <c r="L275">
+        <v>2019</v>
+      </c>
       <c r="M275" s="1">
         <v>17</v>
       </c>
@@ -14849,6 +15101,9 @@
       <c r="K276" t="s">
         <v>237</v>
       </c>
+      <c r="L276">
+        <v>2019</v>
+      </c>
       <c r="M276" s="1">
         <v>16</v>
       </c>
@@ -14893,6 +15148,9 @@
       <c r="K277" t="s">
         <v>211</v>
       </c>
+      <c r="L277">
+        <v>2019</v>
+      </c>
       <c r="M277" s="1">
         <v>17</v>
       </c>
@@ -14937,6 +15195,9 @@
       <c r="K278" t="s">
         <v>211</v>
       </c>
+      <c r="L278">
+        <v>2019</v>
+      </c>
       <c r="M278" s="1">
         <v>17</v>
       </c>
@@ -14981,6 +15242,9 @@
       <c r="K279" t="s">
         <v>237</v>
       </c>
+      <c r="L279">
+        <v>2019</v>
+      </c>
       <c r="M279" s="1">
         <v>17</v>
       </c>
@@ -15025,6 +15289,9 @@
       <c r="K280" t="s">
         <v>211</v>
       </c>
+      <c r="L280">
+        <v>2019</v>
+      </c>
       <c r="M280" s="1">
         <v>17</v>
       </c>
@@ -15069,6 +15336,9 @@
       <c r="K281" t="s">
         <v>211</v>
       </c>
+      <c r="L281">
+        <v>2019</v>
+      </c>
       <c r="M281" s="1">
         <v>16</v>
       </c>
@@ -15113,6 +15383,9 @@
       <c r="K282" t="s">
         <v>79</v>
       </c>
+      <c r="L282">
+        <v>2019</v>
+      </c>
       <c r="M282" s="1">
         <v>18</v>
       </c>
@@ -15157,6 +15430,9 @@
       <c r="K283" t="s">
         <v>269</v>
       </c>
+      <c r="L283">
+        <v>2019</v>
+      </c>
       <c r="M283" s="1">
         <v>18</v>
       </c>
@@ -15201,6 +15477,9 @@
       <c r="K284" t="s">
         <v>211</v>
       </c>
+      <c r="L284">
+        <v>2019</v>
+      </c>
       <c r="M284" s="1">
         <v>17</v>
       </c>
@@ -15245,6 +15524,9 @@
       <c r="K285" t="s">
         <v>223</v>
       </c>
+      <c r="L285">
+        <v>2019</v>
+      </c>
       <c r="M285" s="1">
         <v>18</v>
       </c>
@@ -15289,6 +15571,9 @@
       <c r="K286" t="s">
         <v>79</v>
       </c>
+      <c r="L286">
+        <v>2019</v>
+      </c>
       <c r="M286" s="1">
         <v>17</v>
       </c>
@@ -15333,6 +15618,9 @@
       <c r="K287" t="s">
         <v>211</v>
       </c>
+      <c r="L287">
+        <v>2019</v>
+      </c>
       <c r="M287" s="1">
         <v>17</v>
       </c>
@@ -15377,6 +15665,9 @@
       <c r="K288" t="s">
         <v>79</v>
       </c>
+      <c r="L288">
+        <v>2019</v>
+      </c>
       <c r="M288" s="1">
         <v>16</v>
       </c>
@@ -15421,6 +15712,9 @@
       <c r="K289" t="s">
         <v>211</v>
       </c>
+      <c r="L289">
+        <v>2019</v>
+      </c>
       <c r="M289" s="1">
         <v>16</v>
       </c>
@@ -15465,6 +15759,9 @@
       <c r="K290" t="s">
         <v>211</v>
       </c>
+      <c r="L290">
+        <v>2019</v>
+      </c>
       <c r="M290" s="1">
         <v>17</v>
       </c>
@@ -15509,6 +15806,9 @@
       <c r="K291" t="s">
         <v>269</v>
       </c>
+      <c r="L291">
+        <v>2019</v>
+      </c>
       <c r="M291" s="1">
         <v>17</v>
       </c>
@@ -15553,6 +15853,9 @@
       <c r="K292" t="s">
         <v>79</v>
       </c>
+      <c r="L292">
+        <v>2019</v>
+      </c>
       <c r="M292" s="1">
         <v>18</v>
       </c>
@@ -15597,6 +15900,9 @@
       <c r="K293" t="s">
         <v>79</v>
       </c>
+      <c r="L293">
+        <v>2019</v>
+      </c>
       <c r="M293" s="1">
         <v>16</v>
       </c>
@@ -15641,6 +15947,9 @@
       <c r="K294" t="s">
         <v>79</v>
       </c>
+      <c r="L294">
+        <v>2019</v>
+      </c>
       <c r="M294" s="1">
         <v>18</v>
       </c>
@@ -15685,6 +15994,9 @@
       <c r="K295" t="s">
         <v>211</v>
       </c>
+      <c r="L295">
+        <v>2019</v>
+      </c>
       <c r="M295" s="1">
         <v>17</v>
       </c>
@@ -15729,6 +16041,9 @@
       <c r="K296" t="s">
         <v>201</v>
       </c>
+      <c r="L296">
+        <v>2019</v>
+      </c>
       <c r="M296" s="1">
         <v>16</v>
       </c>
@@ -15773,6 +16088,9 @@
       <c r="K297" t="s">
         <v>223</v>
       </c>
+      <c r="L297">
+        <v>2019</v>
+      </c>
       <c r="M297" s="1">
         <v>17</v>
       </c>
@@ -15817,6 +16135,9 @@
       <c r="K298" t="s">
         <v>223</v>
       </c>
+      <c r="L298">
+        <v>2019</v>
+      </c>
       <c r="M298" s="1">
         <v>18</v>
       </c>
@@ -15861,6 +16182,9 @@
       <c r="K299" t="s">
         <v>79</v>
       </c>
+      <c r="L299">
+        <v>2019</v>
+      </c>
       <c r="M299" s="1">
         <v>18</v>
       </c>
@@ -15905,6 +16229,9 @@
       <c r="K300" t="s">
         <v>211</v>
       </c>
+      <c r="L300">
+        <v>2019</v>
+      </c>
       <c r="M300" s="1">
         <v>16</v>
       </c>
@@ -15949,6 +16276,9 @@
       <c r="K301" t="s">
         <v>211</v>
       </c>
+      <c r="L301">
+        <v>2019</v>
+      </c>
       <c r="M301" s="1">
         <v>16</v>
       </c>
@@ -15993,6 +16323,9 @@
       <c r="K302" t="s">
         <v>237</v>
       </c>
+      <c r="L302">
+        <v>2019</v>
+      </c>
       <c r="M302" s="1">
         <v>16</v>
       </c>
@@ -16037,6 +16370,9 @@
       <c r="K303" t="s">
         <v>237</v>
       </c>
+      <c r="L303">
+        <v>2019</v>
+      </c>
       <c r="M303" s="1">
         <v>17</v>
       </c>
@@ -16081,6 +16417,9 @@
       <c r="K304" t="s">
         <v>79</v>
       </c>
+      <c r="L304">
+        <v>2019</v>
+      </c>
       <c r="M304" s="1">
         <v>17</v>
       </c>
@@ -16125,6 +16464,9 @@
       <c r="K305" t="s">
         <v>223</v>
       </c>
+      <c r="L305">
+        <v>2019</v>
+      </c>
       <c r="M305" s="1">
         <v>17</v>
       </c>
@@ -16169,6 +16511,9 @@
       <c r="K306" t="s">
         <v>223</v>
       </c>
+      <c r="L306">
+        <v>2019</v>
+      </c>
       <c r="M306" s="1">
         <v>16</v>
       </c>
@@ -16213,6 +16558,9 @@
       <c r="K307" t="s">
         <v>79</v>
       </c>
+      <c r="L307">
+        <v>2019</v>
+      </c>
       <c r="M307" s="1">
         <v>18</v>
       </c>
@@ -16257,6 +16605,9 @@
       <c r="K308" t="s">
         <v>211</v>
       </c>
+      <c r="L308">
+        <v>2019</v>
+      </c>
       <c r="M308" s="1">
         <v>16</v>
       </c>
@@ -16301,6 +16652,9 @@
       <c r="K309" t="s">
         <v>211</v>
       </c>
+      <c r="L309">
+        <v>2019</v>
+      </c>
       <c r="M309" s="1">
         <v>16</v>
       </c>
@@ -16345,6 +16699,9 @@
       <c r="K310" t="s">
         <v>79</v>
       </c>
+      <c r="L310">
+        <v>2019</v>
+      </c>
       <c r="M310" s="1">
         <v>18</v>
       </c>
@@ -16389,6 +16746,9 @@
       <c r="K311" t="s">
         <v>126</v>
       </c>
+      <c r="L311">
+        <v>2019</v>
+      </c>
       <c r="M311" s="1">
         <v>17</v>
       </c>
@@ -16433,6 +16793,9 @@
       <c r="K312" t="s">
         <v>201</v>
       </c>
+      <c r="L312">
+        <v>2019</v>
+      </c>
       <c r="M312" s="1">
         <v>17</v>
       </c>
@@ -16477,6 +16840,9 @@
       <c r="K313" t="s">
         <v>269</v>
       </c>
+      <c r="L313">
+        <v>2019</v>
+      </c>
       <c r="M313" s="1">
         <v>16</v>
       </c>
@@ -16521,6 +16887,9 @@
       <c r="K314" t="s">
         <v>126</v>
       </c>
+      <c r="L314">
+        <v>2019</v>
+      </c>
       <c r="M314" s="1">
         <v>17</v>
       </c>
@@ -16565,6 +16934,9 @@
       <c r="K315" t="s">
         <v>237</v>
       </c>
+      <c r="L315">
+        <v>2019</v>
+      </c>
       <c r="M315" s="1">
         <v>17</v>
       </c>
@@ -16608,6 +16980,9 @@
       </c>
       <c r="K316" t="s">
         <v>79</v>
+      </c>
+      <c r="L316">
+        <v>2019</v>
       </c>
       <c r="M316" s="1">
         <v>18</v>
@@ -16622,7 +16997,7 @@
   </sheetData>
   <autoFilter ref="A1:O316" xr:uid="{F72756BF-CD78-408E-A5EF-B14FB130BBE6}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O316">
-      <sortCondition ref="A38"/>
+      <sortCondition ref="O2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -16639,15 +17014,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -16870,6 +17236,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
   <ds:schemaRefs>
@@ -16881,14 +17256,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87CEC647-6C23-41C1-AD0E-2484640C21F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16905,4 +17272,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/Qual_5_data.xlsx
+++ b/source_data/Qual_5_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D682D-1C92-4A39-9917-D4810D4372A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C778FA-B1CF-42E0-9132-7AA2B6A4482F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="5 - Presence of a gender quota " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5 - Presence of a gender quota '!$A$1:$O$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5 - Presence of a gender quota '!$A$1:$S$316</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="420">
   <si>
     <t>Presence of a gender quota for parliament (reserved seats and legal candidate quotas)</t>
   </si>
@@ -1269,6 +1269,30 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>NATURE_DESC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Country Data</t>
   </si>
 </sst>
 </file>
@@ -2119,11 +2143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O316"/>
+  <dimension ref="A1:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M205" sqref="M205"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N300" sqref="N300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,10 +2163,14 @@
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>402</v>
       </c>
@@ -2186,10 +2214,22 @@
         <v>401</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58</v>
       </c>
@@ -2232,11 +2272,23 @@
       <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S2" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>58</v>
       </c>
@@ -2279,11 +2331,23 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S3" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>58</v>
       </c>
@@ -2326,11 +2390,23 @@
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S4" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>58</v>
       </c>
@@ -2373,11 +2449,23 @@
       <c r="N5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S5" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58</v>
       </c>
@@ -2420,11 +2508,23 @@
       <c r="N6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S6" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>58</v>
       </c>
@@ -2467,11 +2567,23 @@
       <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S7" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58</v>
       </c>
@@ -2514,11 +2626,23 @@
       <c r="N8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S8" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>58</v>
       </c>
@@ -2561,11 +2685,23 @@
       <c r="N9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S9" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
@@ -2608,11 +2744,23 @@
       <c r="N10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S10" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58</v>
       </c>
@@ -2655,11 +2803,23 @@
       <c r="N11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S11" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>58</v>
       </c>
@@ -2702,11 +2862,23 @@
       <c r="N12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S12" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>58</v>
       </c>
@@ -2749,11 +2921,23 @@
       <c r="N13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S13" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>58</v>
       </c>
@@ -2796,11 +2980,23 @@
       <c r="N14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S14" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -2843,11 +3039,23 @@
       <c r="N15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S15" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>58</v>
       </c>
@@ -2890,11 +3098,23 @@
       <c r="N16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S16" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>58</v>
       </c>
@@ -2937,11 +3157,23 @@
       <c r="N17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S17" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58</v>
       </c>
@@ -2984,11 +3216,23 @@
       <c r="N18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S18" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>58</v>
       </c>
@@ -3031,11 +3275,23 @@
       <c r="N19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S19" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>58</v>
       </c>
@@ -3078,11 +3334,23 @@
       <c r="N20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S20" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>58</v>
       </c>
@@ -3125,11 +3393,23 @@
       <c r="N21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S21" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58</v>
       </c>
@@ -3172,11 +3452,23 @@
       <c r="N22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S22" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>58</v>
       </c>
@@ -3219,11 +3511,23 @@
       <c r="N23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S23" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>58</v>
       </c>
@@ -3266,11 +3570,23 @@
       <c r="N24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S24" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58</v>
       </c>
@@ -3313,11 +3629,23 @@
       <c r="N25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S25" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>58</v>
       </c>
@@ -3360,11 +3688,23 @@
       <c r="N26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S26" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>58</v>
       </c>
@@ -3407,11 +3747,23 @@
       <c r="N27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S27" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>58</v>
       </c>
@@ -3454,11 +3806,23 @@
       <c r="N28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S28" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>58</v>
       </c>
@@ -3501,11 +3865,23 @@
       <c r="N29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S29" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58</v>
       </c>
@@ -3548,11 +3924,23 @@
       <c r="N30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S30" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>58</v>
       </c>
@@ -3595,11 +3983,23 @@
       <c r="N31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S31" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>58</v>
       </c>
@@ -3642,11 +4042,23 @@
       <c r="N32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S32" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>58</v>
       </c>
@@ -3689,11 +4101,23 @@
       <c r="N33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S33" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>58</v>
       </c>
@@ -3736,11 +4160,23 @@
       <c r="N34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S34" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>58</v>
       </c>
@@ -3783,11 +4219,23 @@
       <c r="N35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S35" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>58</v>
       </c>
@@ -3830,11 +4278,23 @@
       <c r="N36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S36" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>58</v>
       </c>
@@ -3877,11 +4337,23 @@
       <c r="N37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S37" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>58</v>
       </c>
@@ -3924,11 +4396,23 @@
       <c r="N38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S38" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>58</v>
       </c>
@@ -3971,11 +4455,23 @@
       <c r="N39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S39" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>58</v>
       </c>
@@ -4018,11 +4514,23 @@
       <c r="N40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S40" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>58</v>
       </c>
@@ -4065,11 +4573,23 @@
       <c r="N41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S41" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>58</v>
       </c>
@@ -4112,11 +4632,23 @@
       <c r="N42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S42" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>58</v>
       </c>
@@ -4159,11 +4691,23 @@
       <c r="N43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S43" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -4206,11 +4750,23 @@
       <c r="N44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S44" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>58</v>
       </c>
@@ -4253,11 +4809,23 @@
       <c r="N45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S45" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>58</v>
       </c>
@@ -4300,11 +4868,23 @@
       <c r="N46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S46" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>58</v>
       </c>
@@ -4347,11 +4927,23 @@
       <c r="N47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S47" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>58</v>
       </c>
@@ -4394,11 +4986,23 @@
       <c r="N48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S48" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>58</v>
       </c>
@@ -4441,11 +5045,23 @@
       <c r="N49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S49" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>58</v>
       </c>
@@ -4488,11 +5104,23 @@
       <c r="N50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S50" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>58</v>
       </c>
@@ -4535,11 +5163,23 @@
       <c r="N51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S51" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>58</v>
       </c>
@@ -4582,11 +5222,23 @@
       <c r="N52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S52" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -4629,11 +5281,23 @@
       <c r="N53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S53" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58</v>
       </c>
@@ -4676,11 +5340,23 @@
       <c r="N54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S54" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -4723,11 +5399,23 @@
       <c r="N55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S55" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>58</v>
       </c>
@@ -4770,11 +5458,23 @@
       <c r="N56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S56" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
@@ -4817,11 +5517,23 @@
       <c r="N57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S57" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4864,11 +5576,23 @@
       <c r="N58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S58" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4911,11 +5635,23 @@
       <c r="N59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S59" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4958,11 +5694,23 @@
       <c r="N60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S60" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -5005,11 +5753,23 @@
       <c r="N61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S61" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -5052,11 +5812,23 @@
       <c r="N62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S62" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>58</v>
       </c>
@@ -5099,11 +5871,23 @@
       <c r="N63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S63" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>58</v>
       </c>
@@ -5146,11 +5930,23 @@
       <c r="N64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S64" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>58</v>
       </c>
@@ -5193,11 +5989,23 @@
       <c r="N65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S65" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>58</v>
       </c>
@@ -5240,11 +6048,23 @@
       <c r="N66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S66" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>58</v>
       </c>
@@ -5287,11 +6107,23 @@
       <c r="N67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S67" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>58</v>
       </c>
@@ -5334,11 +6166,23 @@
       <c r="N68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S68" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>58</v>
       </c>
@@ -5381,11 +6225,23 @@
       <c r="N69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S69" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>58</v>
       </c>
@@ -5428,11 +6284,23 @@
       <c r="N70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S70" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>58</v>
       </c>
@@ -5475,11 +6343,23 @@
       <c r="N71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S71" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>58</v>
       </c>
@@ -5522,11 +6402,23 @@
       <c r="N72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S72" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>58</v>
       </c>
@@ -5569,11 +6461,23 @@
       <c r="N73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S73" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>58</v>
       </c>
@@ -5616,11 +6520,23 @@
       <c r="N74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S74" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>58</v>
       </c>
@@ -5663,11 +6579,23 @@
       <c r="N75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S75" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>58</v>
       </c>
@@ -5710,11 +6638,23 @@
       <c r="N76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S76" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>58</v>
       </c>
@@ -5757,11 +6697,23 @@
       <c r="N77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S77" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>58</v>
       </c>
@@ -5804,11 +6756,23 @@
       <c r="N78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S78" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>58</v>
       </c>
@@ -5851,11 +6815,23 @@
       <c r="N79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S79" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>58</v>
       </c>
@@ -5898,11 +6874,23 @@
       <c r="N80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S80" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>58</v>
       </c>
@@ -5945,11 +6933,23 @@
       <c r="N81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S81" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>58</v>
       </c>
@@ -5992,11 +6992,23 @@
       <c r="N82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S82" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>58</v>
       </c>
@@ -6039,11 +7051,23 @@
       <c r="N83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S83" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>58</v>
       </c>
@@ -6086,11 +7110,23 @@
       <c r="N84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S84" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>58</v>
       </c>
@@ -6133,11 +7169,23 @@
       <c r="N85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S85" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>58</v>
       </c>
@@ -6180,11 +7228,23 @@
       <c r="N86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S86" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>58</v>
       </c>
@@ -6227,11 +7287,23 @@
       <c r="N87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S87" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>58</v>
       </c>
@@ -6274,11 +7346,23 @@
       <c r="N88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S88" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>58</v>
       </c>
@@ -6321,11 +7405,23 @@
       <c r="N89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S89" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>58</v>
       </c>
@@ -6368,11 +7464,23 @@
       <c r="N90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O90" s="1">
+      <c r="O90" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S90" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>58</v>
       </c>
@@ -6415,11 +7523,23 @@
       <c r="N91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S91" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>58</v>
       </c>
@@ -6462,11 +7582,23 @@
       <c r="N92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S92" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>58</v>
       </c>
@@ -6509,11 +7641,23 @@
       <c r="N93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O93" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S93" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>58</v>
       </c>
@@ -6556,11 +7700,23 @@
       <c r="N94" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S94" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>58</v>
       </c>
@@ -6603,11 +7759,23 @@
       <c r="N95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S95" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>58</v>
       </c>
@@ -6650,11 +7818,23 @@
       <c r="N96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S96" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>58</v>
       </c>
@@ -6697,11 +7877,23 @@
       <c r="N97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S97" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>58</v>
       </c>
@@ -6744,11 +7936,23 @@
       <c r="N98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S98" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>58</v>
       </c>
@@ -6791,11 +7995,23 @@
       <c r="N99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S99" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58</v>
       </c>
@@ -6838,11 +8054,23 @@
       <c r="N100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S100" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>58</v>
       </c>
@@ -6885,11 +8113,23 @@
       <c r="N101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S101" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>58</v>
       </c>
@@ -6932,11 +8172,23 @@
       <c r="N102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S102" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>58</v>
       </c>
@@ -6979,11 +8231,23 @@
       <c r="N103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S103" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>58</v>
       </c>
@@ -7026,11 +8290,23 @@
       <c r="N104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O104" s="1">
+      <c r="O104" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S104" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>58</v>
       </c>
@@ -7073,11 +8349,23 @@
       <c r="N105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S105" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>58</v>
       </c>
@@ -7120,11 +8408,23 @@
       <c r="N106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S106" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>58</v>
       </c>
@@ -7167,11 +8467,23 @@
       <c r="N107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S107" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>58</v>
       </c>
@@ -7214,11 +8526,23 @@
       <c r="N108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S108" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>58</v>
       </c>
@@ -7261,11 +8585,23 @@
       <c r="N109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S109" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>58</v>
       </c>
@@ -7308,11 +8644,23 @@
       <c r="N110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O110" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S110" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>58</v>
       </c>
@@ -7355,11 +8703,23 @@
       <c r="N111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S111" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>58</v>
       </c>
@@ -7402,11 +8762,23 @@
       <c r="N112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S112" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>58</v>
       </c>
@@ -7449,11 +8821,23 @@
       <c r="N113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S113" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>58</v>
       </c>
@@ -7496,11 +8880,23 @@
       <c r="N114" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O114" s="1">
+      <c r="O114" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S114" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>58</v>
       </c>
@@ -7543,11 +8939,23 @@
       <c r="N115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S115" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>58</v>
       </c>
@@ -7590,11 +8998,23 @@
       <c r="N116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S116" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>58</v>
       </c>
@@ -7637,11 +9057,23 @@
       <c r="N117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O117" s="1">
+      <c r="O117" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S117" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
@@ -7684,11 +9116,23 @@
       <c r="N118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S118" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>58</v>
       </c>
@@ -7731,11 +9175,23 @@
       <c r="N119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S119" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>58</v>
       </c>
@@ -7778,11 +9234,23 @@
       <c r="N120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S120" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>58</v>
       </c>
@@ -7825,11 +9293,23 @@
       <c r="N121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S121" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>58</v>
       </c>
@@ -7872,11 +9352,23 @@
       <c r="N122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S122" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>58</v>
       </c>
@@ -7919,11 +9411,23 @@
       <c r="N123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S123" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>58</v>
       </c>
@@ -7966,11 +9470,23 @@
       <c r="N124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O124" s="1">
+      <c r="O124" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S124" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>58</v>
       </c>
@@ -8013,11 +9529,23 @@
       <c r="N125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O125" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S125" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>58</v>
       </c>
@@ -8060,11 +9588,23 @@
       <c r="N126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O126" s="1">
+      <c r="O126" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S126" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>58</v>
       </c>
@@ -8107,11 +9647,23 @@
       <c r="N127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O127" s="1">
+      <c r="O127" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S127" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>58</v>
       </c>
@@ -8154,11 +9706,23 @@
       <c r="N128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S128" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>58</v>
       </c>
@@ -8201,11 +9765,23 @@
       <c r="N129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O129" s="1">
+      <c r="O129" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S129" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>58</v>
       </c>
@@ -8248,11 +9824,23 @@
       <c r="N130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O130" s="1">
+      <c r="O130" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S130" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>58</v>
       </c>
@@ -8295,11 +9883,23 @@
       <c r="N131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O131" s="1">
+      <c r="O131" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S131" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>58</v>
       </c>
@@ -8342,11 +9942,23 @@
       <c r="N132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O132" s="1">
+      <c r="O132" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S132" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>58</v>
       </c>
@@ -8389,11 +10001,23 @@
       <c r="N133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S133" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>58</v>
       </c>
@@ -8436,11 +10060,23 @@
       <c r="N134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O134" s="1">
+      <c r="O134" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S134" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>58</v>
       </c>
@@ -8483,11 +10119,23 @@
       <c r="N135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O135" s="1">
+      <c r="O135" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S135" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>58</v>
       </c>
@@ -8530,11 +10178,23 @@
       <c r="N136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O136" s="1">
+      <c r="O136" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S136" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>58</v>
       </c>
@@ -8577,11 +10237,23 @@
       <c r="N137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O137" s="1">
+      <c r="O137" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S137" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>58</v>
       </c>
@@ -8624,11 +10296,23 @@
       <c r="N138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O138" s="1">
+      <c r="O138" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S138" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>58</v>
       </c>
@@ -8671,11 +10355,23 @@
       <c r="N139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O139" s="1">
+      <c r="O139" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S139" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>58</v>
       </c>
@@ -8718,11 +10414,23 @@
       <c r="N140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O140" s="1">
+      <c r="O140" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S140" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>58</v>
       </c>
@@ -8765,11 +10473,23 @@
       <c r="N141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O141" s="1">
+      <c r="O141" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S141" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>58</v>
       </c>
@@ -8812,11 +10532,23 @@
       <c r="N142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O142" s="1">
+      <c r="O142" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S142" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>58</v>
       </c>
@@ -8859,11 +10591,23 @@
       <c r="N143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O143" s="1">
+      <c r="O143" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S143" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>58</v>
       </c>
@@ -8906,11 +10650,23 @@
       <c r="N144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O144" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S144" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>58</v>
       </c>
@@ -8953,11 +10709,23 @@
       <c r="N145" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O145" s="1">
+      <c r="O145" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S145" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>58</v>
       </c>
@@ -9000,11 +10768,23 @@
       <c r="N146" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O146" s="1">
+      <c r="O146" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S146" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>58</v>
       </c>
@@ -9047,11 +10827,23 @@
       <c r="N147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O147" s="1">
+      <c r="O147" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S147" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>58</v>
       </c>
@@ -9094,11 +10886,23 @@
       <c r="N148" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O148" s="1">
+      <c r="O148" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S148" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>58</v>
       </c>
@@ -9141,11 +10945,23 @@
       <c r="N149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O149" s="1">
+      <c r="O149" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S149" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>58</v>
       </c>
@@ -9188,11 +11004,23 @@
       <c r="N150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O150" s="1">
+      <c r="O150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S150" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>58</v>
       </c>
@@ -9235,11 +11063,23 @@
       <c r="N151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O151" s="1">
+      <c r="O151" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S151" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>58</v>
       </c>
@@ -9282,11 +11122,23 @@
       <c r="N152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O152" s="1">
+      <c r="O152" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S152" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>58</v>
       </c>
@@ -9329,11 +11181,23 @@
       <c r="N153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O153" s="1">
+      <c r="O153" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S153" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>58</v>
       </c>
@@ -9376,11 +11240,23 @@
       <c r="N154" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O154" s="1">
+      <c r="O154" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S154" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>58</v>
       </c>
@@ -9423,11 +11299,23 @@
       <c r="N155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O155" s="1">
+      <c r="O155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S155" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>58</v>
       </c>
@@ -9470,11 +11358,23 @@
       <c r="N156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O156" s="1">
+      <c r="O156" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S156" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>58</v>
       </c>
@@ -9517,11 +11417,23 @@
       <c r="N157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O157" s="1">
+      <c r="O157" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S157" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>58</v>
       </c>
@@ -9564,11 +11476,23 @@
       <c r="N158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O158" s="1">
+      <c r="O158" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S158" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>58</v>
       </c>
@@ -9611,11 +11535,23 @@
       <c r="N159" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O159" s="1">
+      <c r="O159" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S159" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>58</v>
       </c>
@@ -9658,11 +11594,23 @@
       <c r="N160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O160" s="1">
+      <c r="O160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S160" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>58</v>
       </c>
@@ -9705,11 +11653,23 @@
       <c r="N161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O161" s="1">
+      <c r="O161" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S161" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>58</v>
       </c>
@@ -9752,11 +11712,23 @@
       <c r="N162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O162" s="1">
+      <c r="O162" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S162" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>58</v>
       </c>
@@ -9799,11 +11771,23 @@
       <c r="N163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O163" s="1">
+      <c r="O163" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S163" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>58</v>
       </c>
@@ -9846,11 +11830,23 @@
       <c r="N164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O164" s="1">
+      <c r="O164" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S164" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>58</v>
       </c>
@@ -9893,11 +11889,23 @@
       <c r="N165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O165" s="1">
+      <c r="O165" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S165" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>58</v>
       </c>
@@ -9940,11 +11948,23 @@
       <c r="N166" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O166" s="1">
+      <c r="O166" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S166" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>58</v>
       </c>
@@ -9987,11 +12007,23 @@
       <c r="N167" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O167" s="1">
+      <c r="O167" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S167" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>58</v>
       </c>
@@ -10034,11 +12066,23 @@
       <c r="N168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O168" s="1">
+      <c r="O168" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S168" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>58</v>
       </c>
@@ -10081,11 +12125,23 @@
       <c r="N169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O169" s="1">
+      <c r="O169" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S169" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>58</v>
       </c>
@@ -10128,11 +12184,23 @@
       <c r="N170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O170" s="1">
+      <c r="O170" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S170" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>58</v>
       </c>
@@ -10175,11 +12243,23 @@
       <c r="N171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O171" s="1">
+      <c r="O171" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S171" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>58</v>
       </c>
@@ -10222,11 +12302,23 @@
       <c r="N172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O172" s="1">
+      <c r="O172" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S172" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>58</v>
       </c>
@@ -10269,11 +12361,23 @@
       <c r="N173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O173" s="1">
+      <c r="O173" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S173" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>58</v>
       </c>
@@ -10316,11 +12420,23 @@
       <c r="N174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O174" s="1">
+      <c r="O174" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S174" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>58</v>
       </c>
@@ -10363,11 +12479,23 @@
       <c r="N175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O175" s="1">
+      <c r="O175" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S175" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>58</v>
       </c>
@@ -10410,11 +12538,23 @@
       <c r="N176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O176" s="1">
+      <c r="O176" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S176" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>58</v>
       </c>
@@ -10457,11 +12597,23 @@
       <c r="N177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O177" s="1">
+      <c r="O177" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S177" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>58</v>
       </c>
@@ -10504,11 +12656,23 @@
       <c r="N178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O178" s="1">
+      <c r="O178" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S178" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>58</v>
       </c>
@@ -10551,11 +12715,23 @@
       <c r="N179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O179" s="1">
+      <c r="O179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S179" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>58</v>
       </c>
@@ -10598,11 +12774,23 @@
       <c r="N180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O180" s="1">
+      <c r="O180" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S180" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>58</v>
       </c>
@@ -10645,11 +12833,23 @@
       <c r="N181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O181" s="1">
+      <c r="O181" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S181" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>58</v>
       </c>
@@ -10692,11 +12892,23 @@
       <c r="N182" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O182" s="1">
+      <c r="O182" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S182" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>58</v>
       </c>
@@ -10739,11 +12951,23 @@
       <c r="N183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O183" s="1">
+      <c r="O183" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S183" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>58</v>
       </c>
@@ -10786,11 +13010,23 @@
       <c r="N184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O184" s="1">
+      <c r="O184" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S184" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>58</v>
       </c>
@@ -10833,11 +13069,23 @@
       <c r="N185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O185" s="1">
+      <c r="O185" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S185" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>58</v>
       </c>
@@ -10880,11 +13128,23 @@
       <c r="N186" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O186" s="1">
+      <c r="O186" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S186" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>58</v>
       </c>
@@ -10927,11 +13187,23 @@
       <c r="N187" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O187" s="1">
+      <c r="O187" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S187" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>58</v>
       </c>
@@ -10974,11 +13246,23 @@
       <c r="N188" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O188" s="1">
+      <c r="O188" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S188" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>58</v>
       </c>
@@ -11021,11 +13305,23 @@
       <c r="N189" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O189" s="1">
+      <c r="O189" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S189" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>58</v>
       </c>
@@ -11068,11 +13364,23 @@
       <c r="N190" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O190" s="1">
+      <c r="O190" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S190" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>58</v>
       </c>
@@ -11115,11 +13423,23 @@
       <c r="N191" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O191" s="1">
+      <c r="O191" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S191" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>58</v>
       </c>
@@ -11162,11 +13482,23 @@
       <c r="N192" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O192" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O192" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S192" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>58</v>
       </c>
@@ -11209,11 +13541,23 @@
       <c r="N193" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O193" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O193" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S193" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>58</v>
       </c>
@@ -11256,11 +13600,23 @@
       <c r="N194" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O194" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O194" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S194" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>58</v>
       </c>
@@ -11303,11 +13659,23 @@
       <c r="N195" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O195" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S195" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>58</v>
       </c>
@@ -11350,11 +13718,23 @@
       <c r="N196" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O196" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O196" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S196" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>58</v>
       </c>
@@ -11397,11 +13777,23 @@
       <c r="N197" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O197" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O197" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S197" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>58</v>
       </c>
@@ -11444,11 +13836,23 @@
       <c r="N198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O198" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O198" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S198" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>58</v>
       </c>
@@ -11491,11 +13895,23 @@
       <c r="N199" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O199" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O199" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S199" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>58</v>
       </c>
@@ -11538,11 +13954,23 @@
       <c r="N200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O200" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O200" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S200" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>58</v>
       </c>
@@ -11585,11 +14013,23 @@
       <c r="N201" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O201" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O201" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S201" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>58</v>
       </c>
@@ -11632,11 +14072,23 @@
       <c r="N202" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O202" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O202" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S202" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>58</v>
       </c>
@@ -11679,11 +14131,23 @@
       <c r="N203" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O203" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O203" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S203" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>58</v>
       </c>
@@ -11726,11 +14190,23 @@
       <c r="N204" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O204" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O204" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S204" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>58</v>
       </c>
@@ -11773,11 +14249,23 @@
       <c r="N205" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O205" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O205" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S205" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>58</v>
       </c>
@@ -11820,11 +14308,23 @@
       <c r="N206" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O206" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O206" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S206" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>58</v>
       </c>
@@ -11867,11 +14367,23 @@
       <c r="N207" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O207" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O207" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S207" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>58</v>
       </c>
@@ -11914,11 +14426,23 @@
       <c r="N208" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O208" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O208" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S208" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>58</v>
       </c>
@@ -11961,11 +14485,23 @@
       <c r="N209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O209" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O209" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S209" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>58</v>
       </c>
@@ -12008,11 +14544,23 @@
       <c r="N210" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O210" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S210" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>58</v>
       </c>
@@ -12055,11 +14603,23 @@
       <c r="N211" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O211" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O211" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S211" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>58</v>
       </c>
@@ -12102,11 +14662,23 @@
       <c r="N212" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O212" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O212" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S212" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>58</v>
       </c>
@@ -12149,11 +14721,23 @@
       <c r="N213" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O213" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O213" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S213" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>58</v>
       </c>
@@ -12196,11 +14780,23 @@
       <c r="N214" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O214" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O214" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S214" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>58</v>
       </c>
@@ -12243,11 +14839,23 @@
       <c r="N215" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O215" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O215" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S215" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>58</v>
       </c>
@@ -12290,11 +14898,23 @@
       <c r="N216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O216" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O216" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S216" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>58</v>
       </c>
@@ -12337,11 +14957,23 @@
       <c r="N217" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O217" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S217" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>58</v>
       </c>
@@ -12384,11 +15016,23 @@
       <c r="N218" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O218" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S218" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>58</v>
       </c>
@@ -12431,11 +15075,23 @@
       <c r="N219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O219" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O219" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S219" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>58</v>
       </c>
@@ -12478,11 +15134,23 @@
       <c r="N220" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O220" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O220" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S220" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>58</v>
       </c>
@@ -12525,11 +15193,23 @@
       <c r="N221" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O221" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O221" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S221" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>58</v>
       </c>
@@ -12572,11 +15252,23 @@
       <c r="N222" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O222" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O222" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S222" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>58</v>
       </c>
@@ -12619,11 +15311,23 @@
       <c r="N223" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O223" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O223" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S223" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>58</v>
       </c>
@@ -12666,11 +15370,23 @@
       <c r="N224" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O224" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O224" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S224" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>58</v>
       </c>
@@ -12713,11 +15429,23 @@
       <c r="N225" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O225" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O225" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S225" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>58</v>
       </c>
@@ -12760,11 +15488,23 @@
       <c r="N226" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O226" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O226" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S226" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>58</v>
       </c>
@@ -12807,11 +15547,23 @@
       <c r="N227" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O227" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O227" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S227" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>58</v>
       </c>
@@ -12854,11 +15606,23 @@
       <c r="N228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O228" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O228" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S228" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>58</v>
       </c>
@@ -12901,11 +15665,23 @@
       <c r="N229" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O229" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O229" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S229" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>58</v>
       </c>
@@ -12948,11 +15724,23 @@
       <c r="N230" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O230" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O230" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S230" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>58</v>
       </c>
@@ -12995,11 +15783,23 @@
       <c r="N231" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O231" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O231" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S231" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>58</v>
       </c>
@@ -13042,11 +15842,23 @@
       <c r="N232" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O232" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O232" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S232" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>58</v>
       </c>
@@ -13089,11 +15901,23 @@
       <c r="N233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O233" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O233" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S233" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>58</v>
       </c>
@@ -13136,11 +15960,23 @@
       <c r="N234" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O234" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O234" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S234" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>58</v>
       </c>
@@ -13183,11 +16019,23 @@
       <c r="N235" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O235" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O235" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S235" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>58</v>
       </c>
@@ -13230,11 +16078,23 @@
       <c r="N236" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O236" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O236" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S236" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>58</v>
       </c>
@@ -13277,11 +16137,23 @@
       <c r="N237" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O237" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O237" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S237" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>58</v>
       </c>
@@ -13324,11 +16196,23 @@
       <c r="N238" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O238" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O238" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S238" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>58</v>
       </c>
@@ -13371,11 +16255,23 @@
       <c r="N239" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O239" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O239" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S239" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>58</v>
       </c>
@@ -13418,11 +16314,23 @@
       <c r="N240" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O240" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O240" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S240" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>58</v>
       </c>
@@ -13465,11 +16373,23 @@
       <c r="N241" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O241" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O241" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S241" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>58</v>
       </c>
@@ -13512,11 +16432,23 @@
       <c r="N242" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O242" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O242" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S242" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>58</v>
       </c>
@@ -13559,11 +16491,23 @@
       <c r="N243" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O243" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O243" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S243" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>58</v>
       </c>
@@ -13606,11 +16550,23 @@
       <c r="N244" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O244" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O244" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S244" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>58</v>
       </c>
@@ -13653,11 +16609,23 @@
       <c r="N245" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O245" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O245" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S245" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>58</v>
       </c>
@@ -13700,11 +16668,23 @@
       <c r="N246" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O246" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O246" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S246" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>58</v>
       </c>
@@ -13747,11 +16727,23 @@
       <c r="N247" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O247" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O247" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S247" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>58</v>
       </c>
@@ -13794,11 +16786,23 @@
       <c r="N248" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O248" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O248" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S248" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>58</v>
       </c>
@@ -13841,11 +16845,23 @@
       <c r="N249" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O249" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O249" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S249" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>58</v>
       </c>
@@ -13888,11 +16904,23 @@
       <c r="N250" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O250" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O250" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S250" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>58</v>
       </c>
@@ -13935,11 +16963,23 @@
       <c r="N251" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O251" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O251" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S251" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>58</v>
       </c>
@@ -13982,11 +17022,23 @@
       <c r="N252" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O252" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O252" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S252" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>58</v>
       </c>
@@ -14029,11 +17081,23 @@
       <c r="N253" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O253" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O253" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S253" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>58</v>
       </c>
@@ -14076,11 +17140,23 @@
       <c r="N254" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O254" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O254" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S254" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>58</v>
       </c>
@@ -14123,11 +17199,23 @@
       <c r="N255" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O255" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O255" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S255" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>58</v>
       </c>
@@ -14170,11 +17258,23 @@
       <c r="N256" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O256" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O256" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S256" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>58</v>
       </c>
@@ -14217,11 +17317,23 @@
       <c r="N257" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O257" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O257" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S257" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>58</v>
       </c>
@@ -14264,11 +17376,23 @@
       <c r="N258" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O258" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O258" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S258" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>58</v>
       </c>
@@ -14311,11 +17435,23 @@
       <c r="N259" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O259" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O259" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S259" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>58</v>
       </c>
@@ -14358,11 +17494,23 @@
       <c r="N260" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O260" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O260" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S260" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>58</v>
       </c>
@@ -14405,11 +17553,23 @@
       <c r="N261" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O261" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O261" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S261" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>58</v>
       </c>
@@ -14452,11 +17612,23 @@
       <c r="N262" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O262" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O262" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S262" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>58</v>
       </c>
@@ -14499,11 +17671,23 @@
       <c r="N263" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O263" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O263" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S263" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>58</v>
       </c>
@@ -14546,11 +17730,23 @@
       <c r="N264" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O264" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O264" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S264" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>58</v>
       </c>
@@ -14593,11 +17789,23 @@
       <c r="N265" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O265" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O265" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S265" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>58</v>
       </c>
@@ -14640,11 +17848,23 @@
       <c r="N266" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O266" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O266" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S266" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>58</v>
       </c>
@@ -14687,11 +17907,23 @@
       <c r="N267" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O267" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O267" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S267" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>58</v>
       </c>
@@ -14734,11 +17966,23 @@
       <c r="N268" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O268" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O268" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S268" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>58</v>
       </c>
@@ -14781,11 +18025,23 @@
       <c r="N269" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O269" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O269" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S269" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>58</v>
       </c>
@@ -14828,11 +18084,23 @@
       <c r="N270" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O270" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O270" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S270" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>58</v>
       </c>
@@ -14875,11 +18143,23 @@
       <c r="N271" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O271" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O271" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S271" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>58</v>
       </c>
@@ -14922,11 +18202,23 @@
       <c r="N272" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O272" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O272" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S272" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>58</v>
       </c>
@@ -14969,11 +18261,23 @@
       <c r="N273" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O273" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O273" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S273" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>58</v>
       </c>
@@ -15016,11 +18320,23 @@
       <c r="N274" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O274" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O274" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S274" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>58</v>
       </c>
@@ -15063,11 +18379,23 @@
       <c r="N275" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O275" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O275" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S275" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>58</v>
       </c>
@@ -15110,11 +18438,23 @@
       <c r="N276" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O276" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O276" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S276" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>58</v>
       </c>
@@ -15157,11 +18497,23 @@
       <c r="N277" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O277" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O277" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S277" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>58</v>
       </c>
@@ -15204,11 +18556,23 @@
       <c r="N278" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O278" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O278" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S278" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>58</v>
       </c>
@@ -15251,11 +18615,23 @@
       <c r="N279" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O279" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O279" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P279" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S279" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>58</v>
       </c>
@@ -15298,11 +18674,23 @@
       <c r="N280" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O280" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O280" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S280" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>58</v>
       </c>
@@ -15345,11 +18733,23 @@
       <c r="N281" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O281" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O281" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S281" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>58</v>
       </c>
@@ -15392,11 +18792,23 @@
       <c r="N282" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O282" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O282" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S282" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>58</v>
       </c>
@@ -15439,11 +18851,23 @@
       <c r="N283" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O283" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O283" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S283" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>58</v>
       </c>
@@ -15486,11 +18910,23 @@
       <c r="N284" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O284" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O284" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S284" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>58</v>
       </c>
@@ -15533,11 +18969,23 @@
       <c r="N285" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O285" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O285" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S285" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>58</v>
       </c>
@@ -15580,11 +19028,23 @@
       <c r="N286" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O286" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O286" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S286" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>58</v>
       </c>
@@ -15627,11 +19087,23 @@
       <c r="N287" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O287" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O287" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S287" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>58</v>
       </c>
@@ -15674,11 +19146,23 @@
       <c r="N288" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O288" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O288" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S288" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>58</v>
       </c>
@@ -15721,11 +19205,23 @@
       <c r="N289" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O289" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O289" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S289" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>58</v>
       </c>
@@ -15768,11 +19264,23 @@
       <c r="N290" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O290" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O290" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S290" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>58</v>
       </c>
@@ -15815,11 +19323,23 @@
       <c r="N291" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O291" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O291" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S291" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>58</v>
       </c>
@@ -15862,11 +19382,23 @@
       <c r="N292" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O292" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O292" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S292" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>58</v>
       </c>
@@ -15909,11 +19441,23 @@
       <c r="N293" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O293" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O293" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S293" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>58</v>
       </c>
@@ -15956,11 +19500,23 @@
       <c r="N294" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O294" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O294" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S294" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>58</v>
       </c>
@@ -16003,11 +19559,23 @@
       <c r="N295" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O295" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O295" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S295" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>58</v>
       </c>
@@ -16050,11 +19618,23 @@
       <c r="N296" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O296" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O296" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S296" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>58</v>
       </c>
@@ -16097,11 +19677,23 @@
       <c r="N297" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O297" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O297" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S297" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>58</v>
       </c>
@@ -16144,11 +19736,23 @@
       <c r="N298" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O298" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O298" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S298" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>58</v>
       </c>
@@ -16191,11 +19795,23 @@
       <c r="N299" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O299" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O299" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S299" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>58</v>
       </c>
@@ -16238,11 +19854,23 @@
       <c r="N300" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O300" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O300" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S300" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>58</v>
       </c>
@@ -16285,11 +19913,23 @@
       <c r="N301" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O301" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O301" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S301" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>58</v>
       </c>
@@ -16332,11 +19972,23 @@
       <c r="N302" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O302" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O302" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P302" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R302" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S302" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>58</v>
       </c>
@@ -16379,11 +20031,23 @@
       <c r="N303" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O303" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O303" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S303" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>58</v>
       </c>
@@ -16426,11 +20090,23 @@
       <c r="N304" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O304" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O304" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S304" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>58</v>
       </c>
@@ -16473,11 +20149,23 @@
       <c r="N305" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O305" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O305" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P305" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R305" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S305" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>58</v>
       </c>
@@ -16520,11 +20208,23 @@
       <c r="N306" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O306" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O306" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P306" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R306" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S306" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>58</v>
       </c>
@@ -16567,11 +20267,23 @@
       <c r="N307" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O307" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O307" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R307" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S307" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>58</v>
       </c>
@@ -16614,11 +20326,23 @@
       <c r="N308" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O308" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O308" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R308" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S308" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>58</v>
       </c>
@@ -16661,11 +20385,23 @@
       <c r="N309" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O309" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O309" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P309" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R309" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S309" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>58</v>
       </c>
@@ -16708,11 +20444,23 @@
       <c r="N310" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O310" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O310" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P310" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R310" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S310" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>58</v>
       </c>
@@ -16755,11 +20503,23 @@
       <c r="N311" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O311" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O311" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R311" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S311" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>58</v>
       </c>
@@ -16802,11 +20562,23 @@
       <c r="N312" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O312" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O312" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R312" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S312" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>58</v>
       </c>
@@ -16849,11 +20621,23 @@
       <c r="N313" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O313" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O313" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P313" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q313" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R313" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S313" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>58</v>
       </c>
@@ -16896,11 +20680,23 @@
       <c r="N314" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O314" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O314" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P314" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q314" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R314" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S314" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>58</v>
       </c>
@@ -16943,11 +20739,23 @@
       <c r="N315" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O315" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O315" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P315" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q315" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R315" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S315" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>58</v>
       </c>
@@ -16990,14 +20798,26 @@
       <c r="N316" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O316" s="1">
+      <c r="O316" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P316" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q316" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R316" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S316" s="1">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O316" xr:uid="{F72756BF-CD78-408E-A5EF-B14FB130BBE6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O316">
-      <sortCondition ref="O2"/>
+  <autoFilter ref="A1:S316" xr:uid="{F72756BF-CD78-408E-A5EF-B14FB130BBE6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S316">
+      <sortCondition ref="S2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -17006,11 +20826,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17237,20 +21058,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17275,9 +21093,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF25865C-4B7B-43E6-8BD0-484DAD548BEA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8323A25-8A55-456C-8D2B-5CE95ED6198F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>